--- a/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.434063171571836</v>
+        <v>3.434063171572177</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3711912572000529</v>
+        <v>0.3711912572002518</v>
       </c>
       <c r="E2">
-        <v>0.4551437936526384</v>
+        <v>0.4551437936526241</v>
       </c>
       <c r="F2">
-        <v>11.99406617202121</v>
+        <v>11.99406617202123</v>
       </c>
       <c r="G2">
         <v>10.16903678364744</v>
       </c>
       <c r="H2">
-        <v>11.29355081581591</v>
+        <v>11.29355081581588</v>
       </c>
       <c r="I2">
-        <v>0.6122084013271234</v>
+        <v>0.6122084013271021</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.986638742121784</v>
+        <v>2.986638742122238</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3031411783425</v>
+        <v>0.3031411783422868</v>
       </c>
       <c r="E3">
-        <v>0.3720791904407221</v>
+        <v>0.3720791904407292</v>
       </c>
       <c r="F3">
-        <v>9.851954343315896</v>
+        <v>9.851954343315839</v>
       </c>
       <c r="G3">
-        <v>8.348272532539511</v>
+        <v>8.348272532539482</v>
       </c>
       <c r="H3">
-        <v>9.844336852165497</v>
+        <v>9.844336852165554</v>
       </c>
       <c r="I3">
-        <v>0.5000557022850813</v>
+        <v>0.5000557022850742</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.712641930440441</v>
+        <v>2.712641930439361</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2658125440268151</v>
+        <v>0.2658125440266303</v>
       </c>
       <c r="E4">
-        <v>0.3265830756141099</v>
+        <v>0.3265830756140886</v>
       </c>
       <c r="F4">
-        <v>8.670736699789103</v>
+        <v>8.670736699789046</v>
       </c>
       <c r="G4">
         <v>7.344538980356873</v>
       </c>
       <c r="H4">
-        <v>8.95672465465239</v>
+        <v>8.956724654652476</v>
       </c>
       <c r="I4">
-        <v>0.4386000163670047</v>
+        <v>0.4386000163669905</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.601103149139533</v>
+        <v>2.601103149140215</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2513928110680439</v>
+        <v>0.2513928110678592</v>
       </c>
       <c r="E5">
-        <v>0.3090281261873997</v>
+        <v>0.3090281261874637</v>
       </c>
       <c r="F5">
         <v>8.21349177993568</v>
@@ -544,10 +544,10 @@
         <v>6.956039270655566</v>
       </c>
       <c r="H5">
-        <v>8.595401611000341</v>
+        <v>8.595401611000369</v>
       </c>
       <c r="I5">
-        <v>0.4148793150336658</v>
+        <v>0.4148793150336516</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.582587512586372</v>
+        <v>2.582587512586031</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.249039056138983</v>
+        <v>0.2490390561391536</v>
       </c>
       <c r="E6">
-        <v>0.306163854069716</v>
+        <v>0.3061638540698155</v>
       </c>
       <c r="F6">
-        <v>8.138810835529767</v>
+        <v>8.138810835529853</v>
       </c>
       <c r="G6">
-        <v>6.892588221278487</v>
+        <v>6.892588221278572</v>
       </c>
       <c r="H6">
-        <v>8.535422914872299</v>
+        <v>8.535422914872328</v>
       </c>
       <c r="I6">
         <v>0.4110085586135455</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.711137286500048</v>
+        <v>2.711137286500104</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.265615206441197</v>
+        <v>0.2656152064413959</v>
       </c>
       <c r="E7">
-        <v>0.3263427477397016</v>
+        <v>0.326342747739659</v>
       </c>
       <c r="F7">
-        <v>8.664482471305661</v>
+        <v>8.664482471305632</v>
       </c>
       <c r="G7">
         <v>7.339224913022093</v>
       </c>
       <c r="H7">
-        <v>8.951850372969346</v>
+        <v>8.951850372969375</v>
       </c>
       <c r="I7">
-        <v>0.4382753114088445</v>
+        <v>0.4382753114087947</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.279600047042663</v>
+        <v>3.279600047042948</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3465542769849179</v>
+        <v>0.3465542769845342</v>
       </c>
       <c r="E8">
-        <v>0.4250578330698076</v>
+        <v>0.4250578330697934</v>
       </c>
       <c r="F8">
-        <v>11.2204002906139</v>
+        <v>11.22040029061375</v>
       </c>
       <c r="G8">
-        <v>9.511344297591677</v>
+        <v>9.511344297591535</v>
       </c>
       <c r="H8">
-        <v>10.79329427806599</v>
+        <v>10.7932942780659</v>
       </c>
       <c r="I8">
-        <v>0.5715922063824053</v>
+        <v>0.5715922063823911</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.403388309025615</v>
+        <v>4.403388309026013</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5722452598009511</v>
+        <v>0.5722452598006242</v>
       </c>
       <c r="E9">
-        <v>0.7006787355589523</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F9">
-        <v>18.20620536141826</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G9">
-        <v>15.4548581767049</v>
+        <v>15.4548581767047</v>
       </c>
       <c r="H9">
-        <v>14.4307713820042</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="I9">
-        <v>0.9436442594477015</v>
+        <v>0.9436442594476446</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.403388309025615</v>
+        <v>4.403388309026013</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5722452598009511</v>
+        <v>0.5722452598006242</v>
       </c>
       <c r="E10">
-        <v>0.7006787355589523</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F10">
-        <v>18.20620536141826</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G10">
-        <v>15.4548581767049</v>
+        <v>15.4548581767047</v>
       </c>
       <c r="H10">
-        <v>14.4307713820042</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="I10">
-        <v>0.9436442594477015</v>
+        <v>0.9436442594476446</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.403388309025615</v>
+        <v>4.403388309026013</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5722452598009511</v>
+        <v>0.5722452598006242</v>
       </c>
       <c r="E11">
-        <v>0.7006787355589523</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F11">
-        <v>18.20620536141826</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G11">
-        <v>15.4548581767049</v>
+        <v>15.4548581767047</v>
       </c>
       <c r="H11">
-        <v>14.4307713820042</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="I11">
-        <v>0.9436442594477015</v>
+        <v>0.9436442594476446</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.403388309025615</v>
+        <v>4.403388309026013</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5722452598009511</v>
+        <v>0.5722452598006242</v>
       </c>
       <c r="E12">
-        <v>0.7006787355589523</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F12">
-        <v>18.20620536141826</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G12">
-        <v>15.4548581767049</v>
+        <v>15.4548581767047</v>
       </c>
       <c r="H12">
-        <v>14.4307713820042</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="I12">
-        <v>0.9436442594477015</v>
+        <v>0.9436442594476446</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.403388309025615</v>
+        <v>4.403388309026013</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5722452598009511</v>
+        <v>0.5722452598006242</v>
       </c>
       <c r="E13">
-        <v>0.7006787355589523</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F13">
-        <v>18.20620536141826</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G13">
-        <v>15.4548581767049</v>
+        <v>15.4548581767047</v>
       </c>
       <c r="H13">
-        <v>14.4307713820042</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="I13">
-        <v>0.9436442594477015</v>
+        <v>0.9436442594476446</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.403388309025615</v>
+        <v>4.403388309026013</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5722452598009511</v>
+        <v>0.5722452598006242</v>
       </c>
       <c r="E14">
-        <v>0.7006787355589523</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F14">
-        <v>18.20620536141826</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G14">
-        <v>15.4548581767049</v>
+        <v>15.4548581767047</v>
       </c>
       <c r="H14">
-        <v>14.4307713820042</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="I14">
-        <v>0.9436442594477015</v>
+        <v>0.9436442594476446</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.403388309025615</v>
+        <v>4.403388309026013</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5722452598009511</v>
+        <v>0.5722452598006242</v>
       </c>
       <c r="E15">
-        <v>0.7006787355589523</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F15">
-        <v>18.20620536141826</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G15">
-        <v>15.4548581767049</v>
+        <v>15.4548581767047</v>
       </c>
       <c r="H15">
-        <v>14.4307713820042</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="I15">
-        <v>0.9436442594477015</v>
+        <v>0.9436442594476446</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.403388309025615</v>
+        <v>4.403388309026013</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5722452598009511</v>
+        <v>0.5722452598006242</v>
       </c>
       <c r="E16">
-        <v>0.7006787355589523</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F16">
-        <v>18.20620536141826</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G16">
-        <v>15.4548581767049</v>
+        <v>15.4548581767047</v>
       </c>
       <c r="H16">
-        <v>14.4307713820042</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="I16">
-        <v>0.9436442594477015</v>
+        <v>0.9436442594476446</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.403388309025615</v>
+        <v>4.403388309026013</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5722452598009511</v>
+        <v>0.5722452598006242</v>
       </c>
       <c r="E17">
-        <v>0.7006787355589523</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F17">
-        <v>18.20620536141826</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G17">
-        <v>15.4548581767049</v>
+        <v>15.4548581767047</v>
       </c>
       <c r="H17">
-        <v>14.4307713820042</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="I17">
-        <v>0.9436442594477015</v>
+        <v>0.9436442594476446</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.403388309025615</v>
+        <v>4.403388309026013</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5722452598009511</v>
+        <v>0.5722452598006242</v>
       </c>
       <c r="E18">
-        <v>0.7006787355589523</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F18">
-        <v>18.20620536141826</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G18">
-        <v>15.4548581767049</v>
+        <v>15.4548581767047</v>
       </c>
       <c r="H18">
-        <v>14.4307713820042</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="I18">
-        <v>0.9436442594477015</v>
+        <v>0.9436442594476446</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.403388309025615</v>
+        <v>4.403388309026013</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5722452598009511</v>
+        <v>0.5722452598006242</v>
       </c>
       <c r="E19">
-        <v>0.7006787355589523</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F19">
-        <v>18.20620536141826</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G19">
-        <v>15.4548581767049</v>
+        <v>15.4548581767047</v>
       </c>
       <c r="H19">
-        <v>14.4307713820042</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="I19">
-        <v>0.9436442594477015</v>
+        <v>0.9436442594476446</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.403388309025615</v>
+        <v>4.403388309026013</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5722452598009511</v>
+        <v>0.5722452598006242</v>
       </c>
       <c r="E20">
-        <v>0.7006787355589523</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F20">
-        <v>18.20620536141826</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G20">
-        <v>15.4548581767049</v>
+        <v>15.4548581767047</v>
       </c>
       <c r="H20">
-        <v>14.4307713820042</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="I20">
-        <v>0.9436442594477015</v>
+        <v>0.9436442594476446</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.403388309025615</v>
+        <v>4.403388309026013</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5722452598009511</v>
+        <v>0.5722452598006242</v>
       </c>
       <c r="E21">
-        <v>0.7006787355589523</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F21">
-        <v>18.20620536141826</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G21">
-        <v>15.4548581767049</v>
+        <v>15.4548581767047</v>
       </c>
       <c r="H21">
-        <v>14.4307713820042</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="I21">
-        <v>0.9436442594477015</v>
+        <v>0.9436442594476446</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.403388309025615</v>
+        <v>4.403388309026013</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5722452598009511</v>
+        <v>0.5722452598006242</v>
       </c>
       <c r="E22">
-        <v>0.7006787355589523</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F22">
-        <v>18.20620536141826</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G22">
-        <v>15.4548581767049</v>
+        <v>15.4548581767047</v>
       </c>
       <c r="H22">
-        <v>14.4307713820042</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="I22">
-        <v>0.9436442594477015</v>
+        <v>0.9436442594476446</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.403388309025615</v>
+        <v>4.403388309026013</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5722452598009511</v>
+        <v>0.5722452598006242</v>
       </c>
       <c r="E23">
-        <v>0.7006787355589523</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F23">
-        <v>18.20620536141826</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G23">
-        <v>15.4548581767049</v>
+        <v>15.4548581767047</v>
       </c>
       <c r="H23">
-        <v>14.4307713820042</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="I23">
-        <v>0.9436442594477015</v>
+        <v>0.9436442594476446</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.403388309025615</v>
+        <v>4.403388309026013</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5722452598009511</v>
+        <v>0.5722452598006242</v>
       </c>
       <c r="E24">
-        <v>0.7006787355589523</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F24">
-        <v>18.20620536141826</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G24">
-        <v>15.4548581767049</v>
+        <v>15.4548581767047</v>
       </c>
       <c r="H24">
-        <v>14.4307713820042</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="I24">
-        <v>0.9436442594477015</v>
+        <v>0.9436442594476446</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.403388309025615</v>
+        <v>4.403388309026013</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.5722452598009511</v>
+        <v>0.5722452598006242</v>
       </c>
       <c r="E25">
-        <v>0.7006787355589523</v>
+        <v>0.7006787355589807</v>
       </c>
       <c r="F25">
-        <v>18.20620536141826</v>
+        <v>18.2062053614182</v>
       </c>
       <c r="G25">
-        <v>15.4548581767049</v>
+        <v>15.4548581767047</v>
       </c>
       <c r="H25">
-        <v>14.4307713820042</v>
+        <v>14.43077138200425</v>
       </c>
       <c r="I25">
-        <v>0.9436442594477015</v>
+        <v>0.9436442594476446</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.434063171572177</v>
+        <v>3.434063171571836</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3711912572002518</v>
+        <v>0.3711912572000529</v>
       </c>
       <c r="E2">
-        <v>0.4551437936526241</v>
+        <v>0.4551437936526384</v>
       </c>
       <c r="F2">
-        <v>11.99406617202123</v>
+        <v>11.99406617202121</v>
       </c>
       <c r="G2">
         <v>10.16903678364744</v>
       </c>
       <c r="H2">
-        <v>11.29355081581588</v>
+        <v>11.29355081581591</v>
       </c>
       <c r="I2">
-        <v>0.6122084013271021</v>
+        <v>0.6122084013271234</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.986638742122238</v>
+        <v>2.986638742121784</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3031411783422868</v>
+        <v>0.3031411783425</v>
       </c>
       <c r="E3">
-        <v>0.3720791904407292</v>
+        <v>0.3720791904407221</v>
       </c>
       <c r="F3">
-        <v>9.851954343315839</v>
+        <v>9.851954343315896</v>
       </c>
       <c r="G3">
-        <v>8.348272532539482</v>
+        <v>8.348272532539511</v>
       </c>
       <c r="H3">
-        <v>9.844336852165554</v>
+        <v>9.844336852165497</v>
       </c>
       <c r="I3">
-        <v>0.5000557022850742</v>
+        <v>0.5000557022850813</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.712641930439361</v>
+        <v>2.712641930440441</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2658125440266303</v>
+        <v>0.2658125440268151</v>
       </c>
       <c r="E4">
-        <v>0.3265830756140886</v>
+        <v>0.3265830756141099</v>
       </c>
       <c r="F4">
-        <v>8.670736699789046</v>
+        <v>8.670736699789103</v>
       </c>
       <c r="G4">
         <v>7.344538980356873</v>
       </c>
       <c r="H4">
-        <v>8.956724654652476</v>
+        <v>8.95672465465239</v>
       </c>
       <c r="I4">
-        <v>0.4386000163669905</v>
+        <v>0.4386000163670047</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.601103149140215</v>
+        <v>2.601103149139533</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2513928110678592</v>
+        <v>0.2513928110680439</v>
       </c>
       <c r="E5">
-        <v>0.3090281261874637</v>
+        <v>0.3090281261873997</v>
       </c>
       <c r="F5">
         <v>8.21349177993568</v>
@@ -544,10 +544,10 @@
         <v>6.956039270655566</v>
       </c>
       <c r="H5">
-        <v>8.595401611000369</v>
+        <v>8.595401611000341</v>
       </c>
       <c r="I5">
-        <v>0.4148793150336516</v>
+        <v>0.4148793150336658</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.582587512586031</v>
+        <v>2.582587512586372</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2490390561391536</v>
+        <v>0.249039056138983</v>
       </c>
       <c r="E6">
-        <v>0.3061638540698155</v>
+        <v>0.306163854069716</v>
       </c>
       <c r="F6">
-        <v>8.138810835529853</v>
+        <v>8.138810835529767</v>
       </c>
       <c r="G6">
-        <v>6.892588221278572</v>
+        <v>6.892588221278487</v>
       </c>
       <c r="H6">
-        <v>8.535422914872328</v>
+        <v>8.535422914872299</v>
       </c>
       <c r="I6">
         <v>0.4110085586135455</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.711137286500104</v>
+        <v>2.711137286500048</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2656152064413959</v>
+        <v>0.265615206441197</v>
       </c>
       <c r="E7">
-        <v>0.326342747739659</v>
+        <v>0.3263427477397016</v>
       </c>
       <c r="F7">
-        <v>8.664482471305632</v>
+        <v>8.664482471305661</v>
       </c>
       <c r="G7">
         <v>7.339224913022093</v>
       </c>
       <c r="H7">
-        <v>8.951850372969375</v>
+        <v>8.951850372969346</v>
       </c>
       <c r="I7">
-        <v>0.4382753114087947</v>
+        <v>0.4382753114088445</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.279600047042948</v>
+        <v>3.279600047042663</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3465542769845342</v>
+        <v>0.3465542769849179</v>
       </c>
       <c r="E8">
-        <v>0.4250578330697934</v>
+        <v>0.4250578330698076</v>
       </c>
       <c r="F8">
-        <v>11.22040029061375</v>
+        <v>11.2204002906139</v>
       </c>
       <c r="G8">
-        <v>9.511344297591535</v>
+        <v>9.511344297591677</v>
       </c>
       <c r="H8">
-        <v>10.7932942780659</v>
+        <v>10.79329427806599</v>
       </c>
       <c r="I8">
-        <v>0.5715922063823911</v>
+        <v>0.5715922063824053</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.403388309026013</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5722452598006242</v>
+        <v>0.5722452598009511</v>
       </c>
       <c r="E9">
-        <v>0.7006787355589807</v>
+        <v>0.7006787355589523</v>
       </c>
       <c r="F9">
-        <v>18.2062053614182</v>
+        <v>18.20620536141826</v>
       </c>
       <c r="G9">
-        <v>15.4548581767047</v>
+        <v>15.4548581767049</v>
       </c>
       <c r="H9">
-        <v>14.43077138200425</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="I9">
-        <v>0.9436442594476446</v>
+        <v>0.9436442594477015</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.403388309026013</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5722452598006242</v>
+        <v>0.5722452598009511</v>
       </c>
       <c r="E10">
-        <v>0.7006787355589807</v>
+        <v>0.7006787355589523</v>
       </c>
       <c r="F10">
-        <v>18.2062053614182</v>
+        <v>18.20620536141826</v>
       </c>
       <c r="G10">
-        <v>15.4548581767047</v>
+        <v>15.4548581767049</v>
       </c>
       <c r="H10">
-        <v>14.43077138200425</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="I10">
-        <v>0.9436442594476446</v>
+        <v>0.9436442594477015</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.403388309026013</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5722452598006242</v>
+        <v>0.5722452598009511</v>
       </c>
       <c r="E11">
-        <v>0.7006787355589807</v>
+        <v>0.7006787355589523</v>
       </c>
       <c r="F11">
-        <v>18.2062053614182</v>
+        <v>18.20620536141826</v>
       </c>
       <c r="G11">
-        <v>15.4548581767047</v>
+        <v>15.4548581767049</v>
       </c>
       <c r="H11">
-        <v>14.43077138200425</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="I11">
-        <v>0.9436442594476446</v>
+        <v>0.9436442594477015</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.403388309026013</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5722452598006242</v>
+        <v>0.5722452598009511</v>
       </c>
       <c r="E12">
-        <v>0.7006787355589807</v>
+        <v>0.7006787355589523</v>
       </c>
       <c r="F12">
-        <v>18.2062053614182</v>
+        <v>18.20620536141826</v>
       </c>
       <c r="G12">
-        <v>15.4548581767047</v>
+        <v>15.4548581767049</v>
       </c>
       <c r="H12">
-        <v>14.43077138200425</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="I12">
-        <v>0.9436442594476446</v>
+        <v>0.9436442594477015</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.403388309026013</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5722452598006242</v>
+        <v>0.5722452598009511</v>
       </c>
       <c r="E13">
-        <v>0.7006787355589807</v>
+        <v>0.7006787355589523</v>
       </c>
       <c r="F13">
-        <v>18.2062053614182</v>
+        <v>18.20620536141826</v>
       </c>
       <c r="G13">
-        <v>15.4548581767047</v>
+        <v>15.4548581767049</v>
       </c>
       <c r="H13">
-        <v>14.43077138200425</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="I13">
-        <v>0.9436442594476446</v>
+        <v>0.9436442594477015</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.403388309026013</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5722452598006242</v>
+        <v>0.5722452598009511</v>
       </c>
       <c r="E14">
-        <v>0.7006787355589807</v>
+        <v>0.7006787355589523</v>
       </c>
       <c r="F14">
-        <v>18.2062053614182</v>
+        <v>18.20620536141826</v>
       </c>
       <c r="G14">
-        <v>15.4548581767047</v>
+        <v>15.4548581767049</v>
       </c>
       <c r="H14">
-        <v>14.43077138200425</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="I14">
-        <v>0.9436442594476446</v>
+        <v>0.9436442594477015</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.403388309026013</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5722452598006242</v>
+        <v>0.5722452598009511</v>
       </c>
       <c r="E15">
-        <v>0.7006787355589807</v>
+        <v>0.7006787355589523</v>
       </c>
       <c r="F15">
-        <v>18.2062053614182</v>
+        <v>18.20620536141826</v>
       </c>
       <c r="G15">
-        <v>15.4548581767047</v>
+        <v>15.4548581767049</v>
       </c>
       <c r="H15">
-        <v>14.43077138200425</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="I15">
-        <v>0.9436442594476446</v>
+        <v>0.9436442594477015</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.403388309026013</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5722452598006242</v>
+        <v>0.5722452598009511</v>
       </c>
       <c r="E16">
-        <v>0.7006787355589807</v>
+        <v>0.7006787355589523</v>
       </c>
       <c r="F16">
-        <v>18.2062053614182</v>
+        <v>18.20620536141826</v>
       </c>
       <c r="G16">
-        <v>15.4548581767047</v>
+        <v>15.4548581767049</v>
       </c>
       <c r="H16">
-        <v>14.43077138200425</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="I16">
-        <v>0.9436442594476446</v>
+        <v>0.9436442594477015</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.403388309026013</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5722452598006242</v>
+        <v>0.5722452598009511</v>
       </c>
       <c r="E17">
-        <v>0.7006787355589807</v>
+        <v>0.7006787355589523</v>
       </c>
       <c r="F17">
-        <v>18.2062053614182</v>
+        <v>18.20620536141826</v>
       </c>
       <c r="G17">
-        <v>15.4548581767047</v>
+        <v>15.4548581767049</v>
       </c>
       <c r="H17">
-        <v>14.43077138200425</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="I17">
-        <v>0.9436442594476446</v>
+        <v>0.9436442594477015</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.403388309026013</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5722452598006242</v>
+        <v>0.5722452598009511</v>
       </c>
       <c r="E18">
-        <v>0.7006787355589807</v>
+        <v>0.7006787355589523</v>
       </c>
       <c r="F18">
-        <v>18.2062053614182</v>
+        <v>18.20620536141826</v>
       </c>
       <c r="G18">
-        <v>15.4548581767047</v>
+        <v>15.4548581767049</v>
       </c>
       <c r="H18">
-        <v>14.43077138200425</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="I18">
-        <v>0.9436442594476446</v>
+        <v>0.9436442594477015</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.403388309026013</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5722452598006242</v>
+        <v>0.5722452598009511</v>
       </c>
       <c r="E19">
-        <v>0.7006787355589807</v>
+        <v>0.7006787355589523</v>
       </c>
       <c r="F19">
-        <v>18.2062053614182</v>
+        <v>18.20620536141826</v>
       </c>
       <c r="G19">
-        <v>15.4548581767047</v>
+        <v>15.4548581767049</v>
       </c>
       <c r="H19">
-        <v>14.43077138200425</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="I19">
-        <v>0.9436442594476446</v>
+        <v>0.9436442594477015</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.403388309026013</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5722452598006242</v>
+        <v>0.5722452598009511</v>
       </c>
       <c r="E20">
-        <v>0.7006787355589807</v>
+        <v>0.7006787355589523</v>
       </c>
       <c r="F20">
-        <v>18.2062053614182</v>
+        <v>18.20620536141826</v>
       </c>
       <c r="G20">
-        <v>15.4548581767047</v>
+        <v>15.4548581767049</v>
       </c>
       <c r="H20">
-        <v>14.43077138200425</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="I20">
-        <v>0.9436442594476446</v>
+        <v>0.9436442594477015</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.403388309026013</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5722452598006242</v>
+        <v>0.5722452598009511</v>
       </c>
       <c r="E21">
-        <v>0.7006787355589807</v>
+        <v>0.7006787355589523</v>
       </c>
       <c r="F21">
-        <v>18.2062053614182</v>
+        <v>18.20620536141826</v>
       </c>
       <c r="G21">
-        <v>15.4548581767047</v>
+        <v>15.4548581767049</v>
       </c>
       <c r="H21">
-        <v>14.43077138200425</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="I21">
-        <v>0.9436442594476446</v>
+        <v>0.9436442594477015</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.403388309026013</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5722452598006242</v>
+        <v>0.5722452598009511</v>
       </c>
       <c r="E22">
-        <v>0.7006787355589807</v>
+        <v>0.7006787355589523</v>
       </c>
       <c r="F22">
-        <v>18.2062053614182</v>
+        <v>18.20620536141826</v>
       </c>
       <c r="G22">
-        <v>15.4548581767047</v>
+        <v>15.4548581767049</v>
       </c>
       <c r="H22">
-        <v>14.43077138200425</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="I22">
-        <v>0.9436442594476446</v>
+        <v>0.9436442594477015</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.403388309026013</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5722452598006242</v>
+        <v>0.5722452598009511</v>
       </c>
       <c r="E23">
-        <v>0.7006787355589807</v>
+        <v>0.7006787355589523</v>
       </c>
       <c r="F23">
-        <v>18.2062053614182</v>
+        <v>18.20620536141826</v>
       </c>
       <c r="G23">
-        <v>15.4548581767047</v>
+        <v>15.4548581767049</v>
       </c>
       <c r="H23">
-        <v>14.43077138200425</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="I23">
-        <v>0.9436442594476446</v>
+        <v>0.9436442594477015</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.403388309026013</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5722452598006242</v>
+        <v>0.5722452598009511</v>
       </c>
       <c r="E24">
-        <v>0.7006787355589807</v>
+        <v>0.7006787355589523</v>
       </c>
       <c r="F24">
-        <v>18.2062053614182</v>
+        <v>18.20620536141826</v>
       </c>
       <c r="G24">
-        <v>15.4548581767047</v>
+        <v>15.4548581767049</v>
       </c>
       <c r="H24">
-        <v>14.43077138200425</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="I24">
-        <v>0.9436442594476446</v>
+        <v>0.9436442594477015</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.403388309026013</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.5722452598006242</v>
+        <v>0.5722452598009511</v>
       </c>
       <c r="E25">
-        <v>0.7006787355589807</v>
+        <v>0.7006787355589523</v>
       </c>
       <c r="F25">
-        <v>18.2062053614182</v>
+        <v>18.20620536141826</v>
       </c>
       <c r="G25">
-        <v>15.4548581767047</v>
+        <v>15.4548581767049</v>
       </c>
       <c r="H25">
-        <v>14.43077138200425</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="I25">
-        <v>0.9436442594476446</v>
+        <v>0.9436442594477015</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3711912572000529</v>
+        <v>0.3691321814347219</v>
       </c>
       <c r="E2">
-        <v>0.4551437936526384</v>
+        <v>0.4550048025242575</v>
       </c>
       <c r="F2">
-        <v>11.99406617202121</v>
+        <v>11.95787368043767</v>
       </c>
       <c r="G2">
-        <v>10.16903678364744</v>
+        <v>3.426209423605968</v>
       </c>
       <c r="H2">
+        <v>6.706139889691627</v>
+      </c>
+      <c r="I2">
         <v>11.29355081581591</v>
       </c>
-      <c r="I2">
-        <v>0.6122084013271234</v>
-      </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6112054254289134</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,25 +462,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3031411783425</v>
+        <v>0.3015316478649908</v>
       </c>
       <c r="E3">
-        <v>0.3720791904407221</v>
+        <v>0.3720566090205892</v>
       </c>
       <c r="F3">
-        <v>9.851954343315896</v>
+        <v>9.824550792506557</v>
       </c>
       <c r="G3">
-        <v>8.348272532539511</v>
+        <v>2.811584671064963</v>
       </c>
       <c r="H3">
+        <v>5.509353752364149</v>
+      </c>
+      <c r="I3">
         <v>9.844336852165497</v>
       </c>
-      <c r="I3">
-        <v>0.5000557022850813</v>
-      </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4993587117686147</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -494,25 +503,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2658125440268151</v>
+        <v>0.2644308040431156</v>
       </c>
       <c r="E4">
-        <v>0.3265830756141099</v>
+        <v>0.3266012489849146</v>
       </c>
       <c r="F4">
-        <v>8.670736699789103</v>
+        <v>8.647606715256444</v>
       </c>
       <c r="G4">
-        <v>7.344538980356873</v>
+        <v>2.472307167566015</v>
       </c>
       <c r="H4">
+        <v>4.849570581269006</v>
+      </c>
+      <c r="I4">
         <v>8.95672465465239</v>
       </c>
-      <c r="I4">
-        <v>0.4386000163670047</v>
-      </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4380396480438407</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -532,25 +544,25 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2513928110680439</v>
+        <v>0.2500960741022595</v>
       </c>
       <c r="E5">
-        <v>0.3090281261873997</v>
+        <v>0.3090583664862407</v>
       </c>
       <c r="F5">
-        <v>8.21349177993568</v>
+        <v>8.19192435615679</v>
       </c>
       <c r="G5">
-        <v>6.956039270655566</v>
+        <v>2.340895894899376</v>
       </c>
       <c r="H5">
+        <v>4.594213756933613</v>
+      </c>
+      <c r="I5">
         <v>8.595401611000341</v>
       </c>
-      <c r="I5">
-        <v>0.4148793150336658</v>
-      </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4143667441630257</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -570,25 +585,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.249039056138983</v>
+        <v>0.2477560474314942</v>
       </c>
       <c r="E6">
-        <v>0.306163854069716</v>
+        <v>0.3061958834827152</v>
       </c>
       <c r="F6">
-        <v>8.138810835529767</v>
+        <v>8.117494102614756</v>
       </c>
       <c r="G6">
-        <v>6.892588221278487</v>
+        <v>2.319428236082956</v>
       </c>
       <c r="H6">
+        <v>4.552509392750153</v>
+      </c>
+      <c r="I6">
         <v>8.535422914872299</v>
       </c>
-      <c r="I6">
-        <v>0.4110085586135455</v>
-      </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4105035449083445</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -608,25 +626,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.265615206441197</v>
+        <v>0.2642346404212077</v>
       </c>
       <c r="E7">
-        <v>0.3263427477397016</v>
+        <v>0.3263610993733224</v>
       </c>
       <c r="F7">
-        <v>8.664482471305661</v>
+        <v>8.641374187526594</v>
       </c>
       <c r="G7">
-        <v>7.339224913022093</v>
+        <v>2.470510026051471</v>
       </c>
       <c r="H7">
+        <v>4.846077616193469</v>
+      </c>
+      <c r="I7">
         <v>8.951850372969346</v>
       </c>
-      <c r="I7">
-        <v>0.4382753114088445</v>
-      </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4377156149941897</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -646,25 +667,25 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3465542769849179</v>
+        <v>0.3446637153051739</v>
       </c>
       <c r="E8">
-        <v>0.4250578330698076</v>
+        <v>0.424968056980191</v>
       </c>
       <c r="F8">
-        <v>11.2204002906139</v>
+        <v>11.18755620716487</v>
       </c>
       <c r="G8">
-        <v>9.511344297591677</v>
+        <v>3.204315302491665</v>
       </c>
       <c r="H8">
+        <v>6.273867373268104</v>
+      </c>
+      <c r="I8">
         <v>10.79329427806599</v>
       </c>
-      <c r="I8">
-        <v>0.5715922063824053</v>
-      </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5707095585925117</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -684,25 +708,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5722452598009511</v>
+        <v>0.5684039419815008</v>
       </c>
       <c r="E9">
-        <v>0.7006787355589523</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F9">
-        <v>18.20620536141826</v>
+        <v>18.13118412730245</v>
       </c>
       <c r="G9">
-        <v>15.4548581767049</v>
+        <v>5.20398112492822</v>
       </c>
       <c r="H9">
-        <v>14.4307713820042</v>
+        <v>10.17569520087724</v>
       </c>
       <c r="I9">
-        <v>0.9436442594477015</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.9409880770288694</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -722,25 +749,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5722452598009511</v>
+        <v>0.5684039419815008</v>
       </c>
       <c r="E10">
-        <v>0.7006787355589523</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F10">
-        <v>18.20620536141826</v>
+        <v>18.13118412730245</v>
       </c>
       <c r="G10">
-        <v>15.4548581767049</v>
+        <v>5.20398112492822</v>
       </c>
       <c r="H10">
-        <v>14.4307713820042</v>
+        <v>10.17569520087724</v>
       </c>
       <c r="I10">
-        <v>0.9436442594477015</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.9409880770288694</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -760,25 +790,25 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5722452598009511</v>
+        <v>0.5684039419815008</v>
       </c>
       <c r="E11">
-        <v>0.7006787355589523</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F11">
-        <v>18.20620536141826</v>
+        <v>18.13118412730245</v>
       </c>
       <c r="G11">
-        <v>15.4548581767049</v>
+        <v>5.20398112492822</v>
       </c>
       <c r="H11">
-        <v>14.4307713820042</v>
+        <v>10.17569520087724</v>
       </c>
       <c r="I11">
-        <v>0.9436442594477015</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.9409880770288694</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -798,25 +831,25 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5722452598009511</v>
+        <v>0.5684039419815008</v>
       </c>
       <c r="E12">
-        <v>0.7006787355589523</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F12">
-        <v>18.20620536141826</v>
+        <v>18.13118412730245</v>
       </c>
       <c r="G12">
-        <v>15.4548581767049</v>
+        <v>5.20398112492822</v>
       </c>
       <c r="H12">
-        <v>14.4307713820042</v>
+        <v>10.17569520087724</v>
       </c>
       <c r="I12">
-        <v>0.9436442594477015</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.9409880770288694</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -836,25 +872,25 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5722452598009511</v>
+        <v>0.5684039419815008</v>
       </c>
       <c r="E13">
-        <v>0.7006787355589523</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F13">
-        <v>18.20620536141826</v>
+        <v>18.13118412730245</v>
       </c>
       <c r="G13">
-        <v>15.4548581767049</v>
+        <v>5.20398112492822</v>
       </c>
       <c r="H13">
-        <v>14.4307713820042</v>
+        <v>10.17569520087724</v>
       </c>
       <c r="I13">
-        <v>0.9436442594477015</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.9409880770288694</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -874,25 +913,25 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5722452598009511</v>
+        <v>0.5684039419815008</v>
       </c>
       <c r="E14">
-        <v>0.7006787355589523</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F14">
-        <v>18.20620536141826</v>
+        <v>18.13118412730245</v>
       </c>
       <c r="G14">
-        <v>15.4548581767049</v>
+        <v>5.20398112492822</v>
       </c>
       <c r="H14">
-        <v>14.4307713820042</v>
+        <v>10.17569520087724</v>
       </c>
       <c r="I14">
-        <v>0.9436442594477015</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.9409880770288694</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -912,25 +954,25 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5722452598009511</v>
+        <v>0.5684039419815008</v>
       </c>
       <c r="E15">
-        <v>0.7006787355589523</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F15">
-        <v>18.20620536141826</v>
+        <v>18.13118412730245</v>
       </c>
       <c r="G15">
-        <v>15.4548581767049</v>
+        <v>5.20398112492822</v>
       </c>
       <c r="H15">
-        <v>14.4307713820042</v>
+        <v>10.17569520087724</v>
       </c>
       <c r="I15">
-        <v>0.9436442594477015</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.9409880770288694</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -950,25 +995,25 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5722452598009511</v>
+        <v>0.5684039419815008</v>
       </c>
       <c r="E16">
-        <v>0.7006787355589523</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F16">
-        <v>18.20620536141826</v>
+        <v>18.13118412730245</v>
       </c>
       <c r="G16">
-        <v>15.4548581767049</v>
+        <v>5.20398112492822</v>
       </c>
       <c r="H16">
-        <v>14.4307713820042</v>
+        <v>10.17569520087724</v>
       </c>
       <c r="I16">
-        <v>0.9436442594477015</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.9409880770288694</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -988,25 +1036,25 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5722452598009511</v>
+        <v>0.5684039419815008</v>
       </c>
       <c r="E17">
-        <v>0.7006787355589523</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F17">
-        <v>18.20620536141826</v>
+        <v>18.13118412730245</v>
       </c>
       <c r="G17">
-        <v>15.4548581767049</v>
+        <v>5.20398112492822</v>
       </c>
       <c r="H17">
-        <v>14.4307713820042</v>
+        <v>10.17569520087724</v>
       </c>
       <c r="I17">
-        <v>0.9436442594477015</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.9409880770288694</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1026,25 +1077,25 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5722452598009511</v>
+        <v>0.5684039419815008</v>
       </c>
       <c r="E18">
-        <v>0.7006787355589523</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F18">
-        <v>18.20620536141826</v>
+        <v>18.13118412730245</v>
       </c>
       <c r="G18">
-        <v>15.4548581767049</v>
+        <v>5.20398112492822</v>
       </c>
       <c r="H18">
-        <v>14.4307713820042</v>
+        <v>10.17569520087724</v>
       </c>
       <c r="I18">
-        <v>0.9436442594477015</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.9409880770288694</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1064,25 +1118,25 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5722452598009511</v>
+        <v>0.5684039419815008</v>
       </c>
       <c r="E19">
-        <v>0.7006787355589523</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F19">
-        <v>18.20620536141826</v>
+        <v>18.13118412730245</v>
       </c>
       <c r="G19">
-        <v>15.4548581767049</v>
+        <v>5.20398112492822</v>
       </c>
       <c r="H19">
-        <v>14.4307713820042</v>
+        <v>10.17569520087724</v>
       </c>
       <c r="I19">
-        <v>0.9436442594477015</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.9409880770288694</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1102,25 +1159,25 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5722452598009511</v>
+        <v>0.5684039419815008</v>
       </c>
       <c r="E20">
-        <v>0.7006787355589523</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F20">
-        <v>18.20620536141826</v>
+        <v>18.13118412730245</v>
       </c>
       <c r="G20">
-        <v>15.4548581767049</v>
+        <v>5.20398112492822</v>
       </c>
       <c r="H20">
-        <v>14.4307713820042</v>
+        <v>10.17569520087724</v>
       </c>
       <c r="I20">
-        <v>0.9436442594477015</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.9409880770288694</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1140,25 +1200,25 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5722452598009511</v>
+        <v>0.5684039419815008</v>
       </c>
       <c r="E21">
-        <v>0.7006787355589523</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F21">
-        <v>18.20620536141826</v>
+        <v>18.13118412730245</v>
       </c>
       <c r="G21">
-        <v>15.4548581767049</v>
+        <v>5.20398112492822</v>
       </c>
       <c r="H21">
-        <v>14.4307713820042</v>
+        <v>10.17569520087724</v>
       </c>
       <c r="I21">
-        <v>0.9436442594477015</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.9409880770288694</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1178,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5722452598009511</v>
+        <v>0.5684039419815008</v>
       </c>
       <c r="E22">
-        <v>0.7006787355589523</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F22">
-        <v>18.20620536141826</v>
+        <v>18.13118412730245</v>
       </c>
       <c r="G22">
-        <v>15.4548581767049</v>
+        <v>5.20398112492822</v>
       </c>
       <c r="H22">
-        <v>14.4307713820042</v>
+        <v>10.17569520087724</v>
       </c>
       <c r="I22">
-        <v>0.9436442594477015</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.9409880770288694</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1216,25 +1282,25 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5722452598009511</v>
+        <v>0.5684039419815008</v>
       </c>
       <c r="E23">
-        <v>0.7006787355589523</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F23">
-        <v>18.20620536141826</v>
+        <v>18.13118412730245</v>
       </c>
       <c r="G23">
-        <v>15.4548581767049</v>
+        <v>5.20398112492822</v>
       </c>
       <c r="H23">
-        <v>14.4307713820042</v>
+        <v>10.17569520087724</v>
       </c>
       <c r="I23">
-        <v>0.9436442594477015</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.9409880770288694</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1254,25 +1323,25 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5722452598009511</v>
+        <v>0.5684039419815008</v>
       </c>
       <c r="E24">
-        <v>0.7006787355589523</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F24">
-        <v>18.20620536141826</v>
+        <v>18.13118412730245</v>
       </c>
       <c r="G24">
-        <v>15.4548581767049</v>
+        <v>5.20398112492822</v>
       </c>
       <c r="H24">
-        <v>14.4307713820042</v>
+        <v>10.17569520087724</v>
       </c>
       <c r="I24">
-        <v>0.9436442594477015</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.9409880770288694</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1292,30 +1364,33 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.5722452598009511</v>
+        <v>0.5684039419815008</v>
       </c>
       <c r="E25">
-        <v>0.7006787355589523</v>
+        <v>0.6996409090718885</v>
       </c>
       <c r="F25">
-        <v>18.20620536141826</v>
+        <v>18.13118412730245</v>
       </c>
       <c r="G25">
-        <v>15.4548581767049</v>
+        <v>5.20398112492822</v>
       </c>
       <c r="H25">
-        <v>14.4307713820042</v>
+        <v>10.17569520087724</v>
       </c>
       <c r="I25">
-        <v>0.9436442594477015</v>
+        <v>14.4307713820042</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.9409880770288694</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.434063171571836</v>
+        <v>1.791386200148281</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3691321814347219</v>
+        <v>0.3865118988770462</v>
       </c>
       <c r="E2">
-        <v>0.4550048025242575</v>
+        <v>0.1556033430928849</v>
       </c>
       <c r="F2">
-        <v>11.95787368043767</v>
+        <v>6.967865932649715</v>
       </c>
       <c r="G2">
-        <v>3.426209423605968</v>
+        <v>0.0008166661984415727</v>
       </c>
       <c r="H2">
-        <v>6.706139889691627</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.29355081581591</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6112054254289134</v>
+        <v>0.1604178389735438</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.535070024204899</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.9060220498512308</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.986638742121784</v>
+        <v>1.588549186171832</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3015316478649908</v>
+        <v>0.3302609050426213</v>
       </c>
       <c r="E3">
-        <v>0.3720566090205892</v>
+        <v>0.1345210104690757</v>
       </c>
       <c r="F3">
-        <v>9.824550792506557</v>
+        <v>6.275768238656383</v>
       </c>
       <c r="G3">
-        <v>2.811584671064963</v>
+        <v>0.0008314752002861183</v>
       </c>
       <c r="H3">
-        <v>5.509353752364149</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>9.844336852165497</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4993587117686147</v>
+        <v>0.14726621162783</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.319936509715589</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.7837180689357695</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.712641930440441</v>
+        <v>1.468273464878166</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2644308040431156</v>
+        <v>0.2968560460494984</v>
       </c>
       <c r="E4">
-        <v>0.3266012489849146</v>
+        <v>0.1219629538534868</v>
       </c>
       <c r="F4">
-        <v>8.647606715256444</v>
+        <v>5.867050322910018</v>
       </c>
       <c r="G4">
-        <v>2.472307167566015</v>
+        <v>0.0008407232926047756</v>
       </c>
       <c r="H4">
-        <v>4.849570581269006</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>8.95672465465239</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4380396480438407</v>
+        <v>0.1394140719515846</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.192169615655061</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.7113575722247845</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.601103149139533</v>
+        <v>1.420204114855181</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2500960741022595</v>
+        <v>0.2834812046089468</v>
       </c>
       <c r="E5">
-        <v>0.3090583664862407</v>
+        <v>0.116923787906039</v>
       </c>
       <c r="F5">
-        <v>8.19192435615679</v>
+        <v>5.704014872424978</v>
       </c>
       <c r="G5">
-        <v>2.340895894899376</v>
+        <v>0.0008445367133854127</v>
       </c>
       <c r="H5">
-        <v>4.594213756933613</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8.595401611000341</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4143667441630257</v>
+        <v>0.1362562058027592</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.141030142035802</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.6824608608518759</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.582587512586372</v>
+        <v>1.412275777405597</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2477560474314942</v>
+        <v>0.2812734293738686</v>
       </c>
       <c r="E6">
-        <v>0.3061958834827152</v>
+        <v>0.1160912679118518</v>
       </c>
       <c r="F6">
-        <v>8.117494102614756</v>
+        <v>5.677140473518079</v>
       </c>
       <c r="G6">
-        <v>2.319428236082956</v>
+        <v>0.0008451727851243058</v>
       </c>
       <c r="H6">
-        <v>4.552509392750153</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>8.535422914872299</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4105035449083445</v>
+        <v>0.1357340041724449</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.132590117389498</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.6776956739677189</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.711137286500048</v>
+        <v>1.467621521628189</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2642346404212077</v>
+        <v>0.2966747627912412</v>
       </c>
       <c r="E7">
-        <v>0.3263610993733224</v>
+        <v>0.1218946997118486</v>
       </c>
       <c r="F7">
-        <v>8.641374187526594</v>
+        <v>5.864838007499543</v>
       </c>
       <c r="G7">
-        <v>2.470510026051471</v>
+        <v>0.0008407745334853001</v>
       </c>
       <c r="H7">
-        <v>4.846077616193469</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>8.951850372969346</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4377156149941897</v>
+        <v>0.1393713311868297</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.191476376936336</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.7109655877715682</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.279600047042663</v>
+        <v>1.720479411258736</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3446637153051739</v>
+        <v>0.3668508870426024</v>
       </c>
       <c r="E8">
-        <v>0.424968056980191</v>
+        <v>0.1482416802738626</v>
       </c>
       <c r="F8">
-        <v>11.18755620716487</v>
+        <v>6.725500324818199</v>
       </c>
       <c r="G8">
-        <v>3.204315302491665</v>
+        <v>0.0008217437715313387</v>
       </c>
       <c r="H8">
-        <v>6.273867373268104</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>10.79329427806599</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5707095585925117</v>
+        <v>0.1558276555963403</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.459890008533876</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.8632214606088269</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.403388309025615</v>
+        <v>2.257040317327949</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5684039419815008</v>
+        <v>0.515986387815957</v>
       </c>
       <c r="E9">
-        <v>0.6996409090718885</v>
+        <v>0.204000012095662</v>
       </c>
       <c r="F9">
-        <v>18.13118412730245</v>
+        <v>8.571891584591782</v>
       </c>
       <c r="G9">
-        <v>5.20398112492822</v>
+        <v>0.0007853541824167602</v>
       </c>
       <c r="H9">
-        <v>10.17569520087724</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>14.4307713820042</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9409880770288694</v>
+        <v>0.190645358810059</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.0292271889397</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.188700154130174</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.403388309025615</v>
+        <v>2.68767268469685</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5684039419815008</v>
+        <v>0.6369204081251212</v>
       </c>
       <c r="E10">
-        <v>0.6996409090718885</v>
+        <v>0.2492471722370055</v>
       </c>
       <c r="F10">
-        <v>18.13118412730245</v>
+        <v>10.07580942956102</v>
       </c>
       <c r="G10">
-        <v>5.20398112492822</v>
+        <v>0.0007586712812803764</v>
       </c>
       <c r="H10">
-        <v>10.17569520087724</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>14.4307713820042</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9409880770288694</v>
+        <v>0.2191545780703876</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.488586727605963</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.453189828399758</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.403388309025615</v>
+        <v>2.894862215155001</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5684039419815008</v>
+        <v>0.6956939523599317</v>
       </c>
       <c r="E11">
-        <v>0.6996409090718885</v>
+        <v>0.2713021855087874</v>
       </c>
       <c r="F11">
-        <v>18.13118412730245</v>
+        <v>10.80679958109818</v>
       </c>
       <c r="G11">
-        <v>5.20398112492822</v>
+        <v>0.0007463933383479864</v>
       </c>
       <c r="H11">
-        <v>10.17569520087724</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>14.4307713820042</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.9409880770288694</v>
+        <v>0.2331847309339814</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.710888484364958</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.58168164282668</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.403388309025615</v>
+        <v>2.975308879208058</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5684039419815008</v>
+        <v>0.7186331622120861</v>
       </c>
       <c r="E12">
-        <v>0.6996409090718885</v>
+        <v>0.2799262258836563</v>
       </c>
       <c r="F12">
-        <v>18.13118412730245</v>
+        <v>11.09195823145592</v>
       </c>
       <c r="G12">
-        <v>5.20398112492822</v>
+        <v>0.0007417074656795717</v>
       </c>
       <c r="H12">
-        <v>10.17569520087724</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>14.4307713820042</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.9409880770288694</v>
+        <v>0.2386985447482992</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.797472137885563</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.631807263741791</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.403388309025615</v>
+        <v>2.957888036611564</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5684039419815008</v>
+        <v>0.7136597476545035</v>
       </c>
       <c r="E13">
-        <v>0.6996409090718885</v>
+        <v>0.2780556269561458</v>
       </c>
       <c r="F13">
-        <v>18.13118412730245</v>
+        <v>11.03014287078236</v>
       </c>
       <c r="G13">
-        <v>5.20398112492822</v>
+        <v>0.000742718580885926</v>
       </c>
       <c r="H13">
-        <v>10.17569520087724</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>14.4307713820042</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.9409880770288694</v>
+        <v>0.2375011903975839</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.778708839728964</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.620941000934749</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.403388309025615</v>
+        <v>2.901438350763158</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5684039419815008</v>
+        <v>0.6975665394035673</v>
       </c>
       <c r="E14">
-        <v>0.6996409090718885</v>
+        <v>0.2720058263337322</v>
       </c>
       <c r="F14">
-        <v>18.13118412730245</v>
+        <v>10.83008176625822</v>
       </c>
       <c r="G14">
-        <v>5.20398112492822</v>
+        <v>0.0007460086685708169</v>
       </c>
       <c r="H14">
-        <v>10.17569520087724</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>14.4307713820042</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.9409880770288694</v>
+        <v>0.233634002861578</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.717960388882744</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.58577412324226</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.403388309025615</v>
+        <v>2.867132577933148</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5684039419815008</v>
+        <v>0.687802776873184</v>
       </c>
       <c r="E15">
-        <v>0.6996409090718885</v>
+        <v>0.2683376905840689</v>
       </c>
       <c r="F15">
-        <v>18.13118412730245</v>
+        <v>10.70868042751266</v>
       </c>
       <c r="G15">
-        <v>5.20398112492822</v>
+        <v>0.0007480186348431964</v>
       </c>
       <c r="H15">
-        <v>10.17569520087724</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>14.4307713820042</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9409880770288694</v>
+        <v>0.2312930708141145</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.681079649624053</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.564434636816685</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.403388309025615</v>
+        <v>2.674388838611037</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5684039419815008</v>
+        <v>0.6331664361139246</v>
       </c>
       <c r="E16">
-        <v>0.6996409090718885</v>
+        <v>0.2478402657593932</v>
       </c>
       <c r="F16">
-        <v>18.13118412730245</v>
+        <v>10.02910931226756</v>
       </c>
       <c r="G16">
-        <v>5.20398112492822</v>
+        <v>0.0007594695506127938</v>
       </c>
       <c r="H16">
-        <v>10.17569520087724</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>14.4307713820042</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9409880770288694</v>
+        <v>0.218262857609794</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.474365893498387</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.444980479019307</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.403388309025615</v>
+        <v>2.559272739121695</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5684039419815008</v>
+        <v>0.6007023122016335</v>
       </c>
       <c r="E17">
-        <v>0.6996409090718885</v>
+        <v>0.2356810705890453</v>
       </c>
       <c r="F17">
-        <v>18.13118412730245</v>
+        <v>9.625244217357732</v>
       </c>
       <c r="G17">
-        <v>5.20398112492822</v>
+        <v>0.0007664480602521867</v>
       </c>
       <c r="H17">
-        <v>10.17569520087724</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>14.4307713820042</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9409880770288694</v>
+        <v>0.2105714069321358</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.351278289604508</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.373979335752523</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.403388309025615</v>
+        <v>2.494097794912363</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5684039419815008</v>
+        <v>0.5823734252883241</v>
       </c>
       <c r="E18">
-        <v>0.6996409090718885</v>
+        <v>0.2288215387760317</v>
       </c>
       <c r="F18">
-        <v>18.13118412730245</v>
+        <v>9.397245654308165</v>
       </c>
       <c r="G18">
-        <v>5.20398112492822</v>
+        <v>0.0007704499395408516</v>
       </c>
       <c r="H18">
-        <v>10.17569520087724</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>14.4307713820042</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9409880770288694</v>
+        <v>0.206243821935459</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.28170181733087</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.333889541844002</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.403388309025615</v>
+        <v>2.472198984834677</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5684039419815008</v>
+        <v>0.5762228222249064</v>
       </c>
       <c r="E19">
-        <v>0.6996409090718885</v>
+        <v>0.2265204569013477</v>
       </c>
       <c r="F19">
-        <v>18.13118412730245</v>
+        <v>9.320743713273345</v>
       </c>
       <c r="G19">
-        <v>5.20398112492822</v>
+        <v>0.0007718032870634672</v>
       </c>
       <c r="H19">
-        <v>10.17569520087724</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>14.4307713820042</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9409880770288694</v>
+        <v>0.2047938580961777</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.258341118858496</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.320436545934115</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.403388309025615</v>
+        <v>2.571417369309074</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5684039419815008</v>
+        <v>0.60412169259439</v>
       </c>
       <c r="E20">
-        <v>0.6996409090718885</v>
+        <v>0.2369611684012014</v>
       </c>
       <c r="F20">
-        <v>18.13118412730245</v>
+        <v>9.66778148196434</v>
       </c>
       <c r="G20">
-        <v>5.20398112492822</v>
+        <v>0.0007657065317013424</v>
       </c>
       <c r="H20">
-        <v>10.17569520087724</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>14.4307713820042</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9409880770288694</v>
+        <v>0.21137989680809</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.364251750296447</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.381458201750974</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.403388309025615</v>
+        <v>2.917961674055164</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5684039419815008</v>
+        <v>0.7022736499725966</v>
       </c>
       <c r="E21">
-        <v>0.6996409090718885</v>
+        <v>0.2737748429855031</v>
       </c>
       <c r="F21">
-        <v>18.13118412730245</v>
+        <v>10.88860313302587</v>
       </c>
       <c r="G21">
-        <v>5.20398112492822</v>
+        <v>0.0007450434313246751</v>
       </c>
       <c r="H21">
-        <v>10.17569520087724</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>14.4307713820042</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.9409880770288694</v>
+        <v>0.2347639827567463</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.735733975976274</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.596060913980153</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.403388309025615</v>
+        <v>3.156278661806994</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5684039419815008</v>
+        <v>0.7704980454753922</v>
       </c>
       <c r="E22">
-        <v>0.6996409090718885</v>
+        <v>0.2994632727817716</v>
       </c>
       <c r="F22">
-        <v>18.13118412730245</v>
+        <v>11.7362095031246</v>
       </c>
       <c r="G22">
-        <v>5.20398112492822</v>
+        <v>0.000731315356203979</v>
       </c>
       <c r="H22">
-        <v>10.17569520087724</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>14.4307713820042</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9409880770288694</v>
+        <v>0.2512513784399104</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.992849688503782</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.745072831558161</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.403388309025615</v>
+        <v>3.027856565138052</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5684039419815008</v>
+        <v>0.7336549605008145</v>
       </c>
       <c r="E23">
-        <v>0.6996409090718885</v>
+        <v>0.2855791352273158</v>
       </c>
       <c r="F23">
-        <v>18.13118412730245</v>
+        <v>11.27863089199167</v>
       </c>
       <c r="G23">
-        <v>5.20398112492822</v>
+        <v>0.0007386693170637857</v>
       </c>
       <c r="H23">
-        <v>10.17569520087724</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>14.4307713820042</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9409880770288694</v>
+        <v>0.2423216565423374</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.854115432581253</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.664622902425037</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.403388309025615</v>
+        <v>2.565923672224983</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5684039419815008</v>
+        <v>0.602574756954624</v>
       </c>
       <c r="E24">
-        <v>0.6996409090718885</v>
+        <v>0.2363820326375361</v>
       </c>
       <c r="F24">
-        <v>18.13118412730245</v>
+        <v>9.648537453332125</v>
       </c>
       <c r="G24">
-        <v>5.20398112492822</v>
+        <v>0.0007660418071738013</v>
       </c>
       <c r="H24">
-        <v>10.17569520087724</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>14.4307713820042</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9409880770288694</v>
+        <v>0.211014088159871</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.358382782494971</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.37807475461301</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.403388309025615</v>
+        <v>2.106460105732481</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.5684039419815008</v>
+        <v>0.4740118299565665</v>
       </c>
       <c r="E25">
-        <v>0.6996409090718885</v>
+        <v>0.1883161255394477</v>
       </c>
       <c r="F25">
-        <v>18.13118412730245</v>
+        <v>8.050756858086544</v>
       </c>
       <c r="G25">
-        <v>5.20398112492822</v>
+        <v>0.0007951462256585262</v>
       </c>
       <c r="H25">
-        <v>10.17569520087724</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>14.4307713820042</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9409880770288694</v>
+        <v>0.1808301071690472</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.86924792271067</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.096951929467423</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.791386200148281</v>
+        <v>2.874728091192253</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3865118988770462</v>
+        <v>0.8092016763202423</v>
       </c>
       <c r="E2">
-        <v>0.1556033430928849</v>
+        <v>0.6466762313312557</v>
       </c>
       <c r="F2">
-        <v>6.967865932649715</v>
+        <v>4.700242739961197</v>
       </c>
       <c r="G2">
-        <v>0.0008166661984415727</v>
+        <v>0.0007843040943038694</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1604178389735438</v>
+        <v>0.6979191727595691</v>
       </c>
       <c r="K2">
-        <v>1.535070024204899</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9060220498512308</v>
+        <v>1.888991860013391</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.139296885227694</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.205765570359709</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.588549186171832</v>
+        <v>2.530484673704564</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3302609050426213</v>
+        <v>0.6875339198955146</v>
       </c>
       <c r="E3">
-        <v>0.1345210104690757</v>
+        <v>0.5510925512602043</v>
       </c>
       <c r="F3">
-        <v>6.275768238656383</v>
+        <v>4.24235882055288</v>
       </c>
       <c r="G3">
-        <v>0.0008314752002861183</v>
+        <v>0.0008013032106454235</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.14726621162783</v>
+        <v>0.5997831146569439</v>
       </c>
       <c r="K3">
-        <v>1.319936509715589</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7837180689357695</v>
+        <v>1.633193885716793</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.993602104827211</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.291568327308354</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.468273464878166</v>
+        <v>2.325839874392159</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2968560460494984</v>
+        <v>0.615766457791068</v>
       </c>
       <c r="E4">
-        <v>0.1219629538534868</v>
+        <v>0.4943001174860981</v>
       </c>
       <c r="F4">
-        <v>5.867050322910018</v>
+        <v>3.977806277072659</v>
       </c>
       <c r="G4">
-        <v>0.0008407232926047756</v>
+        <v>0.0008118856975969458</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1394140719515846</v>
+        <v>0.5412101174821373</v>
       </c>
       <c r="K4">
-        <v>1.192169615655061</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7113575722247845</v>
+        <v>1.481454685055667</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9070731240754242</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.34624289670375</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.420204114855181</v>
+        <v>2.243898050083487</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2834812046089468</v>
+        <v>0.5871316620524283</v>
       </c>
       <c r="E5">
-        <v>0.116923787906039</v>
+        <v>0.4715455587937143</v>
       </c>
       <c r="F5">
-        <v>5.704014872424978</v>
+        <v>3.873613838629268</v>
       </c>
       <c r="G5">
-        <v>0.0008445367133854127</v>
+        <v>0.0008162427165085218</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1362562058027592</v>
+        <v>0.51768193972228</v>
       </c>
       <c r="K5">
-        <v>1.141030142035802</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6824608608518759</v>
+        <v>1.420745316038222</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8724376673274321</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.369003781599879</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.412275777405597</v>
+        <v>2.230373068490223</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2812734293738686</v>
+        <v>0.5824104138623341</v>
       </c>
       <c r="E6">
-        <v>0.1160912679118518</v>
+        <v>0.4677883426272516</v>
       </c>
       <c r="F6">
-        <v>5.677140473518079</v>
+        <v>3.856516308848711</v>
       </c>
       <c r="G6">
-        <v>0.0008451727851243058</v>
+        <v>0.0008169691037595977</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1357340041724449</v>
+        <v>0.5137935139782002</v>
       </c>
       <c r="K6">
-        <v>1.132590117389498</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6776956739677189</v>
+        <v>1.410726920969324</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8667213365238879</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.372811694537603</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.467621521628189</v>
+        <v>2.324729187295873</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2966747627912412</v>
+        <v>0.6153779594458797</v>
       </c>
       <c r="E7">
-        <v>0.1218946997118486</v>
+        <v>0.4939917738752939</v>
       </c>
       <c r="F7">
-        <v>5.864838007499543</v>
+        <v>3.976387143012573</v>
       </c>
       <c r="G7">
-        <v>0.0008407745334853001</v>
+        <v>0.0008119442674682108</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1393713311868297</v>
+        <v>0.5408915281545461</v>
       </c>
       <c r="K7">
-        <v>1.191476376936336</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7109655877715682</v>
+        <v>1.48063163828391</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9066036190146605</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.346547936893742</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.720479411258736</v>
+        <v>2.754483667511522</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3668508870426024</v>
+        <v>0.7665577677128965</v>
       </c>
       <c r="E8">
-        <v>0.1482416802738626</v>
+        <v>0.6132678680709631</v>
       </c>
       <c r="F8">
-        <v>6.725500324818199</v>
+        <v>4.538559000730515</v>
       </c>
       <c r="G8">
-        <v>0.0008217437715313387</v>
+        <v>0.0007901405812515971</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1558276555963403</v>
+        <v>0.6636786970071</v>
       </c>
       <c r="K8">
-        <v>1.459890008533876</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8632214606088269</v>
+        <v>1.799549675306082</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.088381746002625</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.23492401958643</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.257040317327949</v>
+        <v>3.663485055517071</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.515986387815957</v>
+        <v>1.093388631881197</v>
       </c>
       <c r="E9">
-        <v>0.204000012095662</v>
+        <v>0.867097986010819</v>
       </c>
       <c r="F9">
-        <v>8.571891584591782</v>
+        <v>5.803094721964698</v>
       </c>
       <c r="G9">
-        <v>0.0007853541824167602</v>
+        <v>0.0007480892472486122</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.190645358810059</v>
+        <v>0.922393882139545</v>
       </c>
       <c r="K9">
-        <v>2.0292271889397</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.188700154130174</v>
+        <v>2.478868752297785</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.474125827654646</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.032911439634312</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.68767268469685</v>
+        <v>4.394372530085263</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6369204081251212</v>
+        <v>1.364730264763267</v>
       </c>
       <c r="E10">
-        <v>0.2492471722370055</v>
+        <v>1.074534089670337</v>
       </c>
       <c r="F10">
-        <v>10.07580942956102</v>
+        <v>6.885002592133048</v>
       </c>
       <c r="G10">
-        <v>0.0007586712812803764</v>
+        <v>0.0007168352502722186</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2191545780703876</v>
+        <v>1.131656857553935</v>
       </c>
       <c r="K10">
-        <v>2.488586727605963</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.453189828399758</v>
+        <v>3.031670292866352</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.786066715400167</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.8966555323641145</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.894862215155001</v>
+        <v>4.747526316412177</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6956939523599317</v>
+        <v>1.498995697089185</v>
       </c>
       <c r="E11">
-        <v>0.2713021855087874</v>
+        <v>1.176256060177295</v>
       </c>
       <c r="F11">
-        <v>10.80679958109818</v>
+        <v>7.427248537964175</v>
       </c>
       <c r="G11">
-        <v>0.0007463933383479864</v>
+        <v>0.0007022919874828744</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2331847309339814</v>
+        <v>1.233657297329131</v>
       </c>
       <c r="K11">
-        <v>2.710888484364958</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.58168164282668</v>
+        <v>3.301357617696169</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.937495120993077</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.837880763491178</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.975308879208058</v>
+        <v>4.885027823864846</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.7186331622120861</v>
+        <v>1.55187465072288</v>
       </c>
       <c r="E12">
-        <v>0.2799262258836563</v>
+        <v>1.21616581140438</v>
       </c>
       <c r="F12">
-        <v>11.09195823145592</v>
+        <v>7.641746949667493</v>
       </c>
       <c r="G12">
-        <v>0.0007417074656795717</v>
+        <v>0.0006967091609863552</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2386985447482992</v>
+        <v>1.273573132833576</v>
       </c>
       <c r="K12">
-        <v>2.797472137885563</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.631807263741791</v>
+        <v>3.406864732215581</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.996591679949788</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.8161510025763334</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.957888036611564</v>
+        <v>4.855231380313455</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.7136597476545035</v>
+        <v>1.540386330469488</v>
       </c>
       <c r="E13">
-        <v>0.2780556269561458</v>
+        <v>1.207502220593099</v>
       </c>
       <c r="F13">
-        <v>11.03014287078236</v>
+        <v>7.5951053866238</v>
       </c>
       <c r="G13">
-        <v>0.000742718580885926</v>
+        <v>0.0006979154452630666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2375011903975839</v>
+        <v>1.264913038375568</v>
       </c>
       <c r="K13">
-        <v>2.778708839728964</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.620941000934749</v>
+        <v>3.383976615513518</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.983778732387506</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.8208062050901148</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.901438350763158</v>
+        <v>4.758757651452925</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6975665394035673</v>
+        <v>1.503301974212064</v>
       </c>
       <c r="E14">
-        <v>0.2720058263337322</v>
+        <v>1.179509306432067</v>
       </c>
       <c r="F14">
-        <v>10.83008176625822</v>
+        <v>7.44469837764683</v>
       </c>
       <c r="G14">
-        <v>0.0007460086685708169</v>
+        <v>0.0007018343985849521</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.233634002861578</v>
+        <v>1.236913172671393</v>
       </c>
       <c r="K14">
-        <v>2.717960388882744</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.58577412324226</v>
+        <v>3.309964711555381</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.942319245199641</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.8360820375540001</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.867132577933148</v>
+        <v>4.700183443377057</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.687802776873184</v>
+        <v>1.480868705805136</v>
       </c>
       <c r="E15">
-        <v>0.2683376905840689</v>
+        <v>1.162555556701676</v>
       </c>
       <c r="F15">
-        <v>10.70868042751266</v>
+        <v>7.353831546079874</v>
       </c>
       <c r="G15">
-        <v>0.0007480186348431964</v>
+        <v>0.0007042240129204407</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2312930708141145</v>
+        <v>1.219941525201506</v>
       </c>
       <c r="K15">
-        <v>2.681079649624053</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.564434636816685</v>
+        <v>3.26509756400219</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.917165967288</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.8455098222374033</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.674388838611037</v>
+        <v>4.371771989740751</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6331664361139246</v>
+        <v>1.356211118014954</v>
       </c>
       <c r="E16">
-        <v>0.2478402657593932</v>
+        <v>1.068060381408557</v>
       </c>
       <c r="F16">
-        <v>10.02910931226756</v>
+        <v>6.850727565855664</v>
       </c>
       <c r="G16">
-        <v>0.0007594695506127938</v>
+        <v>0.0007177768716187295</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.218262857609794</v>
+        <v>1.125152266728861</v>
       </c>
       <c r="K16">
-        <v>2.474365893498387</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.444980479019307</v>
+        <v>3.014472116435172</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.776392445243502</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.9005663633858347</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.559272739121695</v>
+        <v>4.176094466351515</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.6007023122016335</v>
+        <v>1.282806935247208</v>
       </c>
       <c r="E17">
-        <v>0.2356810705890453</v>
+        <v>1.012180020315753</v>
       </c>
       <c r="F17">
-        <v>9.625244217357732</v>
+        <v>6.55613492517648</v>
       </c>
       <c r="G17">
-        <v>0.0007664480602521867</v>
+        <v>0.0007259898487397123</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2105714069321358</v>
+        <v>1.068937617134111</v>
       </c>
       <c r="K17">
-        <v>2.351278289604508</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.373979335752523</v>
+        <v>2.865860334054929</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.692711195186774</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.9352047931750533</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.494097794912363</v>
+        <v>4.065432612890675</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5823734252883241</v>
+        <v>1.241570486510625</v>
       </c>
       <c r="E18">
-        <v>0.2288215387760317</v>
+        <v>0.9807068911475056</v>
       </c>
       <c r="F18">
-        <v>9.397245654308165</v>
+        <v>6.391261437057523</v>
       </c>
       <c r="G18">
-        <v>0.0007704499395408516</v>
+        <v>0.0007306852228086124</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.206243821935459</v>
+        <v>1.03722168171501</v>
       </c>
       <c r="K18">
-        <v>2.28170181733087</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.333889541844002</v>
+        <v>2.782040525231167</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.645448023889983</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.9554251183091651</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.472198984834677</v>
+        <v>4.028267756137154</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5762228222249064</v>
+        <v>1.227765263978597</v>
       </c>
       <c r="E19">
-        <v>0.2265204569013477</v>
+        <v>0.9701568466178259</v>
       </c>
       <c r="F19">
-        <v>9.320743713273345</v>
+        <v>6.33617220145166</v>
       </c>
       <c r="G19">
-        <v>0.0007718032870634672</v>
+        <v>0.0007322708383904289</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2047938580961777</v>
+        <v>1.026581259992724</v>
       </c>
       <c r="K19">
-        <v>2.258341118858496</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.320436545934115</v>
+        <v>2.753925673107204</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.629584695243281</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.9623207070286668</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.571417369309074</v>
+        <v>4.196724359480413</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.60412169259439</v>
+        <v>1.290516138693135</v>
       </c>
       <c r="E20">
-        <v>0.2369611684012014</v>
+        <v>1.018057395138243</v>
       </c>
       <c r="F20">
-        <v>9.66778148196434</v>
+        <v>6.587009660763471</v>
       </c>
       <c r="G20">
-        <v>0.0007657065317013424</v>
+        <v>0.0007251186949826708</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.21137989680809</v>
+        <v>1.074855932478471</v>
       </c>
       <c r="K20">
-        <v>2.364251750296447</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.381458201750974</v>
+        <v>2.881503945454597</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.7015269424341</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.9314862949015605</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.917961674055164</v>
+        <v>4.786984435300383</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.7022736499725966</v>
+        <v>1.514134696184044</v>
       </c>
       <c r="E21">
-        <v>0.2737748429855031</v>
+        <v>1.187690584761171</v>
       </c>
       <c r="F21">
-        <v>10.88860313302587</v>
+        <v>7.488609182352917</v>
       </c>
       <c r="G21">
-        <v>0.0007450434313246751</v>
+        <v>0.0007006856347208778</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2347639827567463</v>
+        <v>1.245099380408277</v>
       </c>
       <c r="K21">
-        <v>2.735733975976274</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.596060913980153</v>
+        <v>3.331604694941689</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.954445634424474</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.8315802352582295</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.156278661806994</v>
+        <v>5.195295964779177</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.7704980454753922</v>
+        <v>1.672499783277885</v>
       </c>
       <c r="E22">
-        <v>0.2994632727817716</v>
+        <v>1.306901762655841</v>
       </c>
       <c r="F22">
-        <v>11.7362095031246</v>
+        <v>8.132675986888188</v>
       </c>
       <c r="G22">
-        <v>0.000731315356203979</v>
+        <v>0.000684255554013363</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2512513784399104</v>
+        <v>1.364115707684761</v>
       </c>
       <c r="K22">
-        <v>2.992849688503782</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.745072831558161</v>
+        <v>3.64604164626013</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.130242715916921</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7694033817433166</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.027856565138052</v>
+        <v>4.974976696239594</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7336549605008145</v>
+        <v>1.586655810018868</v>
       </c>
       <c r="E23">
-        <v>0.2855791352273158</v>
+        <v>1.242371451298624</v>
       </c>
       <c r="F23">
-        <v>11.27863089199167</v>
+        <v>7.783083975370062</v>
       </c>
       <c r="G23">
-        <v>0.0007386693170637857</v>
+        <v>0.0006930790049912253</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2423216565423374</v>
+        <v>1.299752132237813</v>
       </c>
       <c r="K23">
-        <v>2.854115432581253</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.664622902425037</v>
+        <v>3.476043684919375</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.035294296289806</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.8022759826359334</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.565923672224983</v>
+        <v>4.187391923489145</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.602574756954624</v>
+        <v>1.287027837076977</v>
       </c>
       <c r="E24">
-        <v>0.2363820326375361</v>
+        <v>1.015398222718105</v>
       </c>
       <c r="F24">
-        <v>9.648537453332125</v>
+        <v>6.573037340933439</v>
       </c>
       <c r="G24">
-        <v>0.0007660418071738013</v>
+        <v>0.0007255126237222172</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.211014088159871</v>
+        <v>1.072178407107572</v>
       </c>
       <c r="K24">
-        <v>2.358382782494971</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.37807475461301</v>
+        <v>2.874426479678363</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.697538734336945</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.9331664788057807</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.106460105732481</v>
+        <v>3.408440741809102</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4740118299565665</v>
+        <v>1.000592779545315</v>
       </c>
       <c r="E25">
-        <v>0.1883161255394477</v>
+        <v>0.7955158267124176</v>
       </c>
       <c r="F25">
-        <v>8.050756858086544</v>
+        <v>5.438810449964109</v>
       </c>
       <c r="G25">
-        <v>0.0007951462256585262</v>
+        <v>0.0007594603167183795</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1808301071690472</v>
+        <v>0.8497528891294621</v>
       </c>
       <c r="K25">
-        <v>1.86924792271067</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1.096951929467423</v>
+        <v>2.287461027589273</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.365678639505475</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.085584872574877</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.874728091192253</v>
+        <v>2.725194398296594</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8092016763202423</v>
+        <v>0.2626496464037587</v>
       </c>
       <c r="E2">
-        <v>0.6466762313312557</v>
+        <v>0.1765809838104246</v>
       </c>
       <c r="F2">
-        <v>4.700242739961197</v>
+        <v>5.593921383993347</v>
       </c>
       <c r="G2">
-        <v>0.0007843040943038694</v>
+        <v>0.002670869184767723</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6979191727595691</v>
+        <v>0.1929031843028355</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.888991860013391</v>
+        <v>1.27378031124033</v>
       </c>
       <c r="M2">
-        <v>1.139296885227694</v>
+        <v>0.922060958821433</v>
       </c>
       <c r="N2">
-        <v>1.205765570359709</v>
+        <v>2.657762862678169</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.530484673704564</v>
+        <v>2.661214646614837</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6875339198955146</v>
+        <v>0.2351416345204314</v>
       </c>
       <c r="E3">
-        <v>0.5510925512602043</v>
+        <v>0.1535691909987733</v>
       </c>
       <c r="F3">
-        <v>4.24235882055288</v>
+        <v>5.536426800347783</v>
       </c>
       <c r="G3">
-        <v>0.0008013032106454235</v>
+        <v>0.002680822602941113</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5997831146569439</v>
+        <v>0.1682863146042592</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.633193885716793</v>
+        <v>1.223503659134337</v>
       </c>
       <c r="M3">
-        <v>0.993602104827211</v>
+        <v>0.8941446311664976</v>
       </c>
       <c r="N3">
-        <v>1.291568327308354</v>
+        <v>2.687968677205923</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.325839874392159</v>
+        <v>2.623542432703175</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.615766457791068</v>
+        <v>0.2184256650930649</v>
       </c>
       <c r="E4">
-        <v>0.4943001174860981</v>
+        <v>0.139486579031022</v>
       </c>
       <c r="F4">
-        <v>3.977806277072659</v>
+        <v>5.504775140787615</v>
       </c>
       <c r="G4">
-        <v>0.0008118856975969458</v>
+        <v>0.002687245852607324</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5412101174821373</v>
+        <v>0.1531624957255104</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.481454685055667</v>
+        <v>1.193482695804789</v>
       </c>
       <c r="M4">
-        <v>0.9070731240754242</v>
+        <v>0.8775837343299173</v>
       </c>
       <c r="N4">
-        <v>1.34624289670375</v>
+        <v>2.707391697807047</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.243898050083487</v>
+        <v>2.60859374123504</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5871316620524283</v>
+        <v>0.2116556328359138</v>
       </c>
       <c r="E5">
-        <v>0.4715455587937143</v>
+        <v>0.1337582946326563</v>
       </c>
       <c r="F5">
-        <v>3.873613838629268</v>
+        <v>5.492787120187955</v>
       </c>
       <c r="G5">
-        <v>0.0008162427165085218</v>
+        <v>0.002689942126511437</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.51768193972228</v>
+        <v>0.146996042840513</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.420745316038222</v>
+        <v>1.181459948492687</v>
       </c>
       <c r="M5">
-        <v>0.8724376673274321</v>
+        <v>0.8709796652599664</v>
       </c>
       <c r="N5">
-        <v>1.369003781599879</v>
+        <v>2.715526737100724</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.230373068490223</v>
+        <v>2.60613580192927</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5824104138623341</v>
+        <v>0.2105339472708749</v>
       </c>
       <c r="E6">
-        <v>0.4677883426272516</v>
+        <v>0.1328077149705535</v>
       </c>
       <c r="F6">
-        <v>3.856516308848711</v>
+        <v>5.490851278509325</v>
       </c>
       <c r="G6">
-        <v>0.0008169691037595977</v>
+        <v>0.002690394607435797</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5137935139782002</v>
+        <v>0.1459718719240186</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.410726920969324</v>
+        <v>1.179476255555841</v>
       </c>
       <c r="M6">
-        <v>0.8667213365238879</v>
+        <v>0.8698917662719765</v>
       </c>
       <c r="N6">
-        <v>1.372811694537603</v>
+        <v>2.716890829933913</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.324729187295873</v>
+        <v>2.623339200381793</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6153779594458797</v>
+        <v>0.218334195075073</v>
       </c>
       <c r="E7">
-        <v>0.4939917738752939</v>
+        <v>0.1394092845354322</v>
       </c>
       <c r="F7">
-        <v>3.976387143012573</v>
+        <v>5.50460979033295</v>
       </c>
       <c r="G7">
-        <v>0.0008119442674682108</v>
+        <v>0.002687281896082394</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5408915281545461</v>
+        <v>0.1530793479128647</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.48063163828391</v>
+        <v>1.193319701562586</v>
       </c>
       <c r="M7">
-        <v>0.9066036190146605</v>
+        <v>0.877494085465564</v>
       </c>
       <c r="N7">
-        <v>1.346547936893742</v>
+        <v>2.707500519541451</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.754483667511522</v>
+        <v>2.70279831129136</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7665577677128965</v>
+        <v>0.2531275917764901</v>
       </c>
       <c r="E8">
-        <v>0.6132678680709631</v>
+        <v>0.1686360526341844</v>
       </c>
       <c r="F8">
-        <v>4.538559000730515</v>
+        <v>5.573334994001272</v>
       </c>
       <c r="G8">
-        <v>0.0007901405812515971</v>
+        <v>0.002674236612726272</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6636786970071</v>
+        <v>0.1844164601699276</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.799549675306082</v>
+        <v>1.256267163948536</v>
       </c>
       <c r="M8">
-        <v>1.088381746002625</v>
+        <v>0.9123143355314411</v>
       </c>
       <c r="N8">
-        <v>1.23492401958643</v>
+        <v>2.667995658515537</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.663485055517071</v>
+        <v>2.871519075932156</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.093388631881197</v>
+        <v>0.3228289623567662</v>
       </c>
       <c r="E9">
-        <v>0.867097986010819</v>
+        <v>0.226380411838619</v>
       </c>
       <c r="F9">
-        <v>5.803094721964698</v>
+        <v>5.73743059908503</v>
       </c>
       <c r="G9">
-        <v>0.0007480892472486122</v>
+        <v>0.002651113346906607</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.922393882139545</v>
+        <v>0.2458514335800714</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.478868752297785</v>
+        <v>1.386566106772989</v>
       </c>
       <c r="M9">
-        <v>1.474125827654646</v>
+        <v>0.9852564945380067</v>
       </c>
       <c r="N9">
-        <v>1.032911439634312</v>
+        <v>2.597498925529656</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.394372530085263</v>
+        <v>3.003522902463146</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.364730264763267</v>
+        <v>0.3750676394433015</v>
       </c>
       <c r="E10">
-        <v>1.074534089670337</v>
+        <v>0.2691560250445804</v>
       </c>
       <c r="F10">
-        <v>6.885002592133048</v>
+        <v>5.876400966100789</v>
       </c>
       <c r="G10">
-        <v>0.0007168352502722186</v>
+        <v>0.002635601543884324</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.131656857553935</v>
+        <v>0.2910574689401528</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.031670292866352</v>
+        <v>1.486662115138301</v>
       </c>
       <c r="M10">
-        <v>1.786066715400167</v>
+        <v>1.041778231776263</v>
       </c>
       <c r="N10">
-        <v>0.8966555323641145</v>
+        <v>2.549977778724269</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.747526316412177</v>
+        <v>3.065363142275714</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.498995697089185</v>
+        <v>0.3990853617507355</v>
       </c>
       <c r="E11">
-        <v>1.176256060177295</v>
+        <v>0.2887117528234597</v>
       </c>
       <c r="F11">
-        <v>7.427248537964175</v>
+        <v>5.943739360258093</v>
       </c>
       <c r="G11">
-        <v>0.0007022919874828744</v>
+        <v>0.002628860782518423</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.233657297329131</v>
+        <v>0.3116560605106145</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.301357617696169</v>
+        <v>1.533188131352631</v>
       </c>
       <c r="M11">
-        <v>1.937495120993077</v>
+        <v>1.068148605032604</v>
       </c>
       <c r="N11">
-        <v>0.837880763491178</v>
+        <v>2.529292008637228</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.885027823864846</v>
+        <v>3.089041156945939</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.55187465072288</v>
+        <v>0.408219163721725</v>
       </c>
       <c r="E12">
-        <v>1.21616581140438</v>
+        <v>0.2961325122042382</v>
       </c>
       <c r="F12">
-        <v>7.641746949667493</v>
+        <v>5.969840833304403</v>
       </c>
       <c r="G12">
-        <v>0.0006967091609863552</v>
+        <v>0.002626353250225883</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.273573132833576</v>
+        <v>0.3194625506817204</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.406864732215581</v>
+        <v>1.550952254346612</v>
       </c>
       <c r="M12">
-        <v>1.996591679949788</v>
+        <v>1.078230663539813</v>
       </c>
       <c r="N12">
-        <v>0.8161510025763334</v>
+        <v>2.521593353562658</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.855231380313455</v>
+        <v>3.083930041415897</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.540386330469488</v>
+        <v>0.4062502730561732</v>
       </c>
       <c r="E13">
-        <v>1.207502220593099</v>
+        <v>0.294533608394218</v>
       </c>
       <c r="F13">
-        <v>7.5951053866238</v>
+        <v>5.964192492313686</v>
       </c>
       <c r="G13">
-        <v>0.0006979154452630666</v>
+        <v>0.002626891294154244</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.264913038375568</v>
+        <v>0.3177809835963217</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.383976615513518</v>
+        <v>1.547119900717576</v>
       </c>
       <c r="M13">
-        <v>1.983778732387506</v>
+        <v>1.076055010207924</v>
       </c>
       <c r="N13">
-        <v>0.8208062050901148</v>
+        <v>2.523245400681475</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.758757651452925</v>
+        <v>3.067305909786171</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.503301974212064</v>
+        <v>0.3998360140564614</v>
       </c>
       <c r="E14">
-        <v>1.179509306432067</v>
+        <v>0.289321945210375</v>
       </c>
       <c r="F14">
-        <v>7.44469837764683</v>
+        <v>5.945874626620935</v>
       </c>
       <c r="G14">
-        <v>0.0007018343985849521</v>
+        <v>0.002628653585729678</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.236913172671393</v>
+        <v>0.3122981720664768</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.309964711555381</v>
+        <v>1.534646657650228</v>
       </c>
       <c r="M14">
-        <v>1.942319245199641</v>
+        <v>1.068976125881207</v>
       </c>
       <c r="N14">
-        <v>0.8360820375540001</v>
+        <v>2.52865593462699</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.700183443377057</v>
+        <v>3.057157156641949</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.480868705805136</v>
+        <v>0.3959122181244368</v>
       </c>
       <c r="E15">
-        <v>1.162555556701676</v>
+        <v>0.2861317055411945</v>
       </c>
       <c r="F15">
-        <v>7.353831546079874</v>
+        <v>5.934733072112067</v>
       </c>
       <c r="G15">
-        <v>0.0007042240129204407</v>
+        <v>0.002629738896364771</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.219941525201506</v>
+        <v>0.3089406461465387</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.26509756400219</v>
+        <v>1.527025508357497</v>
       </c>
       <c r="M15">
-        <v>1.917165967288</v>
+        <v>1.064652674459452</v>
       </c>
       <c r="N15">
-        <v>0.8455098222374033</v>
+        <v>2.531987589534239</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.371771989740751</v>
+        <v>2.999517783818419</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.356211118014954</v>
+        <v>0.3735033308250593</v>
       </c>
       <c r="E16">
-        <v>1.068060381408557</v>
+        <v>0.2678800889790125</v>
       </c>
       <c r="F16">
-        <v>6.850727565855664</v>
+        <v>5.872083949829772</v>
       </c>
       <c r="G16">
-        <v>0.0007177768716187295</v>
+        <v>0.002636048390807336</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.125152266728861</v>
+        <v>0.2897121033421399</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.014472116435172</v>
+        <v>1.483641752098038</v>
       </c>
       <c r="M16">
-        <v>1.776392445243502</v>
+        <v>1.040068240682317</v>
       </c>
       <c r="N16">
-        <v>0.9005663633858347</v>
+        <v>2.55134844426199</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.176094466351515</v>
+        <v>2.964618658988172</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.282806935247208</v>
+        <v>0.3598228826080003</v>
       </c>
       <c r="E17">
-        <v>1.012180020315753</v>
+        <v>0.2567091817190743</v>
       </c>
       <c r="F17">
-        <v>6.55613492517648</v>
+        <v>5.834712617329757</v>
       </c>
       <c r="G17">
-        <v>0.0007259898487397123</v>
+        <v>0.002639999661440089</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.068937617134111</v>
+        <v>0.2779257019856516</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.865860334054929</v>
+        <v>1.457283435142187</v>
       </c>
       <c r="M17">
-        <v>1.692711195186774</v>
+        <v>1.025156158064107</v>
       </c>
       <c r="N17">
-        <v>0.9352047931750533</v>
+        <v>2.563464788458141</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.065432612890675</v>
+        <v>2.944714005874005</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.241570486510625</v>
+        <v>0.3519780270237902</v>
       </c>
       <c r="E18">
-        <v>0.9807068911475056</v>
+        <v>0.2502929988728937</v>
       </c>
       <c r="F18">
-        <v>6.391261437057523</v>
+        <v>5.813604837787864</v>
       </c>
       <c r="G18">
-        <v>0.0007306852228086124</v>
+        <v>0.002642302057364299</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.03722168171501</v>
+        <v>0.2711496065923882</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.782040525231167</v>
+        <v>1.442215993434672</v>
       </c>
       <c r="M18">
-        <v>1.645448023889983</v>
+        <v>1.01664099694662</v>
       </c>
       <c r="N18">
-        <v>0.9554251183091651</v>
+        <v>2.570521461180554</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.028267756137154</v>
+        <v>2.938003468347574</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.227765263978597</v>
+        <v>0.349325908956132</v>
       </c>
       <c r="E19">
-        <v>0.9701568466178259</v>
+        <v>0.2481220951111709</v>
       </c>
       <c r="F19">
-        <v>6.33617220145166</v>
+        <v>5.806524329086187</v>
       </c>
       <c r="G19">
-        <v>0.0007322708383904289</v>
+        <v>0.002643086725289329</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.026581259992724</v>
+        <v>0.2688558345966499</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.753925673107204</v>
+        <v>1.437130324736643</v>
       </c>
       <c r="M19">
-        <v>1.629584695243281</v>
+        <v>1.013768491784759</v>
       </c>
       <c r="N19">
-        <v>0.9623207070286668</v>
+        <v>2.572925769054116</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.196724359480413</v>
+        <v>2.968316280873921</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.290516138693135</v>
+        <v>0.3612767126100209</v>
       </c>
       <c r="E20">
-        <v>1.018057395138243</v>
+        <v>0.25789739882498</v>
       </c>
       <c r="F20">
-        <v>6.587009660763471</v>
+        <v>5.83865071598575</v>
       </c>
       <c r="G20">
-        <v>0.0007251186949826708</v>
+        <v>0.002639575967441344</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.074855932478471</v>
+        <v>0.2791800508904601</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.881503945454597</v>
+        <v>1.46007965857342</v>
       </c>
       <c r="M20">
-        <v>1.7015269424341</v>
+        <v>1.026737160245332</v>
       </c>
       <c r="N20">
-        <v>0.9314862949015605</v>
+        <v>2.562165904934055</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.786984435300383</v>
+        <v>3.07218172773895</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.514134696184044</v>
+        <v>0.4017189656639175</v>
       </c>
       <c r="E21">
-        <v>1.187690584761171</v>
+        <v>0.2908523061363582</v>
       </c>
       <c r="F21">
-        <v>7.488609182352917</v>
+        <v>5.9512386164524</v>
       </c>
       <c r="G21">
-        <v>0.0007006856347208778</v>
+        <v>0.002628134738013717</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.245099380408277</v>
+        <v>0.313908426207604</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.331604694941689</v>
+        <v>1.538306371174656</v>
       </c>
       <c r="M21">
-        <v>1.954445634424474</v>
+        <v>1.071052743552741</v>
       </c>
       <c r="N21">
-        <v>0.8315802352582295</v>
+        <v>2.527063071845369</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.195295964779177</v>
+        <v>3.141583377876032</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.672499783277885</v>
+        <v>0.4283776369121597</v>
       </c>
       <c r="E22">
-        <v>1.306901762655841</v>
+        <v>0.3124809022519059</v>
       </c>
       <c r="F22">
-        <v>8.132675986888188</v>
+        <v>6.028334119572605</v>
       </c>
       <c r="G22">
-        <v>0.000684255554013363</v>
+        <v>0.002620919645905147</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.364115707684761</v>
+        <v>0.3366425093479393</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.64604164626013</v>
+        <v>1.590282990665685</v>
       </c>
       <c r="M22">
-        <v>2.130242715916921</v>
+        <v>1.100576827018045</v>
       </c>
       <c r="N22">
-        <v>0.7694033817433166</v>
+        <v>2.504906168350281</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.974976696239594</v>
+        <v>3.104402380163378</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.586655810018868</v>
+        <v>0.4141278361681202</v>
       </c>
       <c r="E23">
-        <v>1.242371451298624</v>
+        <v>0.3009285131191746</v>
       </c>
       <c r="F23">
-        <v>7.783083975370062</v>
+        <v>5.986862196527198</v>
       </c>
       <c r="G23">
-        <v>0.0006930790049912253</v>
+        <v>0.002624746578415278</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.299752132237813</v>
+        <v>0.3245050554292277</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.476043684919375</v>
+        <v>1.562463177616394</v>
       </c>
       <c r="M23">
-        <v>2.035294296289806</v>
+        <v>1.084767401094581</v>
       </c>
       <c r="N23">
-        <v>0.8022759826359334</v>
+        <v>2.516659709760617</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.187391923489145</v>
+        <v>2.966644089995896</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.287027837076977</v>
+        <v>0.3606193732680936</v>
       </c>
       <c r="E24">
-        <v>1.015398222718105</v>
+        <v>0.257360186919982</v>
       </c>
       <c r="F24">
-        <v>6.573037340933439</v>
+        <v>5.83686912647326</v>
       </c>
       <c r="G24">
-        <v>0.0007255126237222172</v>
+        <v>0.002639767423719719</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.072178407107572</v>
+        <v>0.2786129596527758</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.874426479678363</v>
+        <v>1.458815217370244</v>
       </c>
       <c r="M24">
-        <v>1.697538734336945</v>
+        <v>1.02602220863416</v>
       </c>
       <c r="N24">
-        <v>0.9331664788057807</v>
+        <v>2.562752847321022</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.408440741809102</v>
+        <v>2.824476224194598</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.000592779545315</v>
+        <v>0.3038018865807146</v>
       </c>
       <c r="E25">
-        <v>0.7955158267124176</v>
+        <v>0.210703920059359</v>
       </c>
       <c r="F25">
-        <v>5.438810449964109</v>
+        <v>5.689844739609043</v>
       </c>
       <c r="G25">
-        <v>0.0007594603167183795</v>
+        <v>0.002657107864858827</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8497528891294621</v>
+        <v>0.2292252998244209</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.287461027589273</v>
+        <v>1.350563783354318</v>
       </c>
       <c r="M25">
-        <v>1.365678639505475</v>
+        <v>0.9650156659979672</v>
       </c>
       <c r="N25">
-        <v>1.085584872574877</v>
+        <v>2.615821491174643</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -462,120 +468,1230 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>7.867493530325305</v>
+      </c>
+      <c r="E3">
+        <v>14.63697591245861</v>
+      </c>
+      <c r="F3">
+        <v>78.28519332951714</v>
+      </c>
+      <c r="G3">
+        <v>0.0002672883792860237</v>
+      </c>
+      <c r="H3">
+        <v>2.125865223469006</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>8.455863783543577</v>
+      </c>
+      <c r="E4">
+        <v>17.04473018597962</v>
+      </c>
+      <c r="F4">
+        <v>83.88076431889294</v>
+      </c>
+      <c r="G4">
+        <v>0.000230821607154838</v>
+      </c>
+      <c r="H4">
+        <v>2.520946454566527</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>8.65774595010447</v>
+      </c>
+      <c r="E5">
+        <v>17.97578562083191</v>
+      </c>
+      <c r="F5">
+        <v>85.77203841336308</v>
+      </c>
+      <c r="G5">
+        <v>0.0002181105630942898</v>
+      </c>
+      <c r="H5">
+        <v>2.672953561480071</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>8.689674932363005</v>
+      </c>
+      <c r="E6">
+        <v>18.12895157149607</v>
+      </c>
+      <c r="F6">
+        <v>86.06937630010339</v>
+      </c>
+      <c r="G6">
+        <v>0.0002160866018333774</v>
+      </c>
+      <c r="H6">
+        <v>2.69791088968347</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>8.458704408984943</v>
+      </c>
+      <c r="E7">
+        <v>17.05740842346157</v>
+      </c>
+      <c r="F7">
+        <v>83.90749903632741</v>
+      </c>
+      <c r="G7">
+        <v>0.0002306436735154049</v>
+      </c>
+      <c r="H7">
+        <v>2.523019632130939</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E8">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F8">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G8">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H8">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E9">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F9">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G9">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H9">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E10">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F10">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G10">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H10">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E11">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F11">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G11">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H11">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E12">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F12">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G12">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H12">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E13">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F13">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G13">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H13">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E14">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F14">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G14">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H14">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E15">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F15">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G15">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H15">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E16">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F16">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G16">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H16">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E17">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F17">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G17">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H17">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E18">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F18">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G18">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H18">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E19">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F19">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G19">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H19">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E20">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F20">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G20">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H20">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E21">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F21">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G21">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H21">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E22">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F22">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G22">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H22">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E23">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F23">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G23">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H23">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E24">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F24">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G24">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H24">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>6.920030369115238</v>
+      </c>
+      <c r="E25">
+        <v>11.45487244738287</v>
+      </c>
+      <c r="F25">
+        <v>69.11287715929927</v>
+      </c>
+      <c r="G25">
+        <v>0.0003252866196440706</v>
+      </c>
+      <c r="H25">
+        <v>1.601714568055186</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
@@ -427,43 +427,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.7234583817159717</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02992650373184347</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.04517576885281915</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.22091545983676</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.9908292259809173</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01559863828661262</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.03268400461608323</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6855829985444899</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7033003184241338</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.08060822389467859</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.504576312338457</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.371838670746456</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -480,43 +480,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.6322501639469067</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.867493530325305</v>
+        <v>0.02729660353406516</v>
       </c>
       <c r="E3">
-        <v>14.63697591245861</v>
+        <v>0.04228344199550405</v>
       </c>
       <c r="F3">
-        <v>78.28519332951714</v>
+        <v>1.166693831923979</v>
       </c>
       <c r="G3">
-        <v>0.0002672883792860237</v>
+        <v>0.9399337207665752</v>
       </c>
       <c r="H3">
-        <v>2.125865223469006</v>
+        <v>0.01952670636122256</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.03725143564904121</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6672430924445081</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6977634867156404</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.07560554798662222</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.308690821200059</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3251636496990642</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -533,43 +533,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.5759427315741732</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.455863783543577</v>
+        <v>0.02569338164078161</v>
       </c>
       <c r="E4">
-        <v>17.04473018597962</v>
+        <v>0.04049975012534324</v>
       </c>
       <c r="F4">
-        <v>83.88076431889294</v>
+        <v>1.133985308724967</v>
       </c>
       <c r="G4">
-        <v>0.000230821607154838</v>
+        <v>0.9092956163280661</v>
       </c>
       <c r="H4">
-        <v>2.520946454566527</v>
+        <v>0.02225170067678983</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.04034215387394946</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6563804476457165</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6943434739125784</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.07251450665596249</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.189095425295932</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2968317104157023</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -586,43 +586,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.5522332016512621</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.65774595010447</v>
+        <v>0.02504712173110235</v>
       </c>
       <c r="E5">
-        <v>17.97578562083191</v>
+        <v>0.03974373909671902</v>
       </c>
       <c r="F5">
-        <v>85.77203841336308</v>
+        <v>1.119488908044346</v>
       </c>
       <c r="G5">
-        <v>0.0002181105630942898</v>
+        <v>0.8956971623432537</v>
       </c>
       <c r="H5">
-        <v>2.672953561480071</v>
+        <v>0.02344493764299449</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.04177919735687619</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6514005433033958</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6919363725644416</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.071225497212005</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.141674636252617</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2859478655326058</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -639,43 +639,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.5474528526684992</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.689674932363005</v>
+        <v>0.02494593903823272</v>
       </c>
       <c r="E6">
-        <v>18.12895157149607</v>
+        <v>0.03958634949663065</v>
       </c>
       <c r="F6">
-        <v>86.06937630010339</v>
+        <v>1.115495558945085</v>
       </c>
       <c r="G6">
-        <v>0.0002160866018333774</v>
+        <v>0.8919132737732411</v>
       </c>
       <c r="H6">
-        <v>2.69791088968347</v>
+        <v>0.02365598634535226</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.04216057768127257</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6497869979392306</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.690307108562223</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.07098405708350208</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.135237953781854</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2848633675745162</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -692,43 +692,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.5733248250697898</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.458704408984943</v>
+        <v>0.02570112935661228</v>
       </c>
       <c r="E7">
-        <v>17.05740842346157</v>
+        <v>0.04040318447547175</v>
       </c>
       <c r="F7">
-        <v>83.90749903632741</v>
+        <v>1.129438008589517</v>
       </c>
       <c r="G7">
-        <v>0.0002306436735154049</v>
+        <v>0.9049233905299019</v>
       </c>
       <c r="H7">
-        <v>2.523019632130939</v>
+        <v>0.02228926641339557</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.04072104812072119</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.654152511177756</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6909572038085017</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.07242367859553767</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.192366005279467</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2986494062362084</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -745,43 +745,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.6889996563998579</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.920030369115238</v>
+        <v>0.02903881049911305</v>
       </c>
       <c r="E8">
-        <v>11.45487244738287</v>
+        <v>0.04406581399966347</v>
       </c>
       <c r="F8">
-        <v>69.11287715929927</v>
+        <v>1.196353979809942</v>
       </c>
       <c r="G8">
-        <v>0.0003252866196440706</v>
+        <v>0.9676193037663978</v>
       </c>
       <c r="H8">
-        <v>1.601714568055186</v>
+        <v>0.01690984772249843</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.03462996388349726</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6763323730585569</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6969880918876221</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07879183132047496</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.442092236922178</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3582905455461542</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -798,43 +798,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.9176783513777025</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.920030369115238</v>
+        <v>0.03568297661447417</v>
       </c>
       <c r="E9">
-        <v>11.45487244738287</v>
+        <v>0.05139662343027762</v>
       </c>
       <c r="F9">
-        <v>69.11287715929927</v>
+        <v>1.340444851673823</v>
       </c>
       <c r="G9">
-        <v>0.0003252866196440706</v>
+        <v>1.103464006143795</v>
       </c>
       <c r="H9">
-        <v>1.601714568055186</v>
+        <v>0.00895133212848756</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.02450132775710046</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.727073709974718</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.7146303827811664</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09134639307886339</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.931189632465134</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4746014894057566</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -851,43 +851,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.079325035196604</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.920030369115238</v>
+        <v>0.04016979960233513</v>
       </c>
       <c r="E10">
-        <v>11.45487244738287</v>
+        <v>0.05614529199724361</v>
       </c>
       <c r="F10">
-        <v>69.11287715929927</v>
+        <v>1.42449394197223</v>
       </c>
       <c r="G10">
-        <v>0.0003252866196440706</v>
+        <v>1.184313372155003</v>
       </c>
       <c r="H10">
-        <v>1.601714568055186</v>
+        <v>0.005256224076847449</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01893532468258119</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7551175186008408</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.7137260700625916</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1004910424845633</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.304118434087997</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5526960559782168</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -904,43 +904,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.114113439645791</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.920030369115238</v>
+        <v>0.0378175076925551</v>
       </c>
       <c r="E11">
-        <v>11.45487244738287</v>
+        <v>0.05537785145490215</v>
       </c>
       <c r="F11">
-        <v>69.11287715929927</v>
+        <v>1.259486817438912</v>
       </c>
       <c r="G11">
-        <v>0.0003252866196440706</v>
+        <v>1.038921543303047</v>
       </c>
       <c r="H11">
-        <v>1.601714568055186</v>
+        <v>0.02357112368085268</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01827590859784944</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6756998967127004</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6107661674627494</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1111774893655095</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.536825589285968</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5020149088933721</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -957,43 +957,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.112438246739657</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.920030369115238</v>
+        <v>0.03511121842335285</v>
       </c>
       <c r="E12">
-        <v>11.45487244738287</v>
+        <v>0.05777057773909089</v>
       </c>
       <c r="F12">
-        <v>69.11287715929927</v>
+        <v>1.116712561661345</v>
       </c>
       <c r="G12">
-        <v>0.0003252866196440706</v>
+        <v>0.9123595909832574</v>
       </c>
       <c r="H12">
-        <v>1.601714568055186</v>
+        <v>0.0624052142216982</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01816197036427258</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6091517994430404</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5389493007312041</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1284324305530546</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.650267989565208</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.4422666350785391</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1010,43 +1010,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.078943286621609</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.920030369115238</v>
+        <v>0.03199453260400276</v>
       </c>
       <c r="E13">
-        <v>11.45487244738287</v>
+        <v>0.06246441301501093</v>
       </c>
       <c r="F13">
-        <v>69.11287715929927</v>
+        <v>0.9760661265253532</v>
       </c>
       <c r="G13">
-        <v>0.0003252866196440706</v>
+        <v>0.7863779326894758</v>
       </c>
       <c r="H13">
-        <v>1.601714568055186</v>
+        <v>0.118698007071032</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01893508862603888</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5452046883077344</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4815429334279102</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1512264026981782</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.683407379581297</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.3756329454175642</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1063,43 +1063,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.040520255483983</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.920030369115238</v>
+        <v>0.02968556783949339</v>
       </c>
       <c r="E14">
-        <v>11.45487244738287</v>
+        <v>0.06727275095635399</v>
       </c>
       <c r="F14">
-        <v>69.11287715929927</v>
+        <v>0.8793728737668047</v>
       </c>
       <c r="G14">
-        <v>0.0003252866196440706</v>
+        <v>0.6990997071144562</v>
       </c>
       <c r="H14">
-        <v>1.601714568055186</v>
+        <v>0.1686007439606101</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01999684421118086</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5018592199211014</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4487348753671725</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1709068827960607</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.671519739535626</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.3272347418247818</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1116,43 +1116,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.023605651188575</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.920030369115238</v>
+        <v>0.02901277621600329</v>
       </c>
       <c r="E15">
-        <v>11.45487244738287</v>
+        <v>0.06845488307967251</v>
       </c>
       <c r="F15">
-        <v>69.11287715929927</v>
+        <v>0.8542502799041429</v>
       </c>
       <c r="G15">
-        <v>0.0003252866196440706</v>
+        <v>0.6760611092293516</v>
       </c>
       <c r="H15">
-        <v>1.601714568055186</v>
+        <v>0.1813857279851021</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.02061606044918296</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4909058635509922</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4419508709249325</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1757113274393447</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.652819970930722</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.3143447902666594</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1169,43 +1169,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.9602345167040767</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.920030369115238</v>
+        <v>0.02776330321786702</v>
       </c>
       <c r="E16">
-        <v>11.45487244738287</v>
+        <v>0.06522829798411678</v>
       </c>
       <c r="F16">
-        <v>69.11287715929927</v>
+        <v>0.8458977092249285</v>
       </c>
       <c r="G16">
-        <v>0.0003252866196440706</v>
+        <v>0.6657776486921705</v>
       </c>
       <c r="H16">
-        <v>1.601714568055186</v>
+        <v>0.1701850881692621</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02300352712438691</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4909578251073867</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4525093081992022</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.166393489744415</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.485302672334853</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2971702841779944</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1222,43 +1222,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.9319255797948642</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.920030369115238</v>
+        <v>0.02800258790216503</v>
       </c>
       <c r="E17">
-        <v>11.45487244738287</v>
+        <v>0.05988710162203148</v>
       </c>
       <c r="F17">
-        <v>69.11287715929927</v>
+        <v>0.8897850204024422</v>
       </c>
       <c r="G17">
-        <v>0.0003252866196440706</v>
+        <v>0.7033344396474632</v>
       </c>
       <c r="H17">
-        <v>1.601714568055186</v>
+        <v>0.1333279010675881</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.02431630337495427</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5136505639748492</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4770252275485198</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1480495984188863</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.363843332061634</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.309256143703692</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1275,43 +1275,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.932237270171612</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.920030369115238</v>
+        <v>0.02966983135745238</v>
       </c>
       <c r="E18">
-        <v>11.45487244738287</v>
+        <v>0.05390755985423823</v>
       </c>
       <c r="F18">
-        <v>69.11287715929927</v>
+        <v>0.9906746932423403</v>
       </c>
       <c r="G18">
-        <v>0.0003252866196440706</v>
+        <v>0.7927993961180277</v>
       </c>
       <c r="H18">
-        <v>1.601714568055186</v>
+        <v>0.08074281185087528</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.02436654457601506</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5615652736851331</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5230104835818281</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1242289889429564</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.26495306903567</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.348151362700392</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1328,43 +1328,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.9510421339038828</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.920030369115238</v>
+        <v>0.03261914913062824</v>
       </c>
       <c r="E19">
-        <v>11.45487244738287</v>
+        <v>0.05072759497470392</v>
       </c>
       <c r="F19">
-        <v>69.11287715929927</v>
+        <v>1.13090644268604</v>
       </c>
       <c r="G19">
-        <v>0.0003252866196440706</v>
+        <v>0.9178226471200901</v>
       </c>
       <c r="H19">
-        <v>1.601714568055186</v>
+        <v>0.03491473032355685</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.02398290852318219</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6261194286188783</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5867808574134408</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1053622075287599</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.200338774746712</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.411838076558098</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1381,43 +1381,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.029431427864836</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.920030369115238</v>
+        <v>0.0390102923934954</v>
       </c>
       <c r="E20">
-        <v>11.45487244738287</v>
+        <v>0.0546107148340198</v>
       </c>
       <c r="F20">
-        <v>69.11287715929927</v>
+        <v>1.387842394446878</v>
       </c>
       <c r="G20">
-        <v>0.0003252866196440706</v>
+        <v>1.14905841645438</v>
       </c>
       <c r="H20">
-        <v>1.601714568055186</v>
+        <v>0.0061245820339626</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02130312953882196</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7405692892781133</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7034117493320622</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09790706177337771</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.218523236826314</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5378496577632887</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1434,43 +1434,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.160735590504942</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.920030369115238</v>
+        <v>0.04333533946276802</v>
       </c>
       <c r="E21">
-        <v>11.45487244738287</v>
+        <v>0.05940183298706003</v>
       </c>
       <c r="F21">
-        <v>69.11287715929927</v>
+        <v>1.493018385740029</v>
       </c>
       <c r="G21">
-        <v>0.0003252866196440706</v>
+        <v>1.248022396071093</v>
       </c>
       <c r="H21">
-        <v>1.601714568055186</v>
+        <v>0.00337090214585789</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01712299288387431</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7808752753878707</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.723774918202956</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1052469983679964</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.494806598287511</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6136602809446146</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1487,43 +1487,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.247470349441727</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.920030369115238</v>
+        <v>0.04590971586068804</v>
       </c>
       <c r="E22">
-        <v>11.45487244738287</v>
+        <v>0.06234693102542943</v>
       </c>
       <c r="F22">
-        <v>69.11287715929927</v>
+        <v>1.556312799919695</v>
       </c>
       <c r="G22">
-        <v>0.0003252866196440706</v>
+        <v>1.30840916829905</v>
       </c>
       <c r="H22">
-        <v>1.601714568055186</v>
+        <v>0.002126765272699283</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01440275735132346</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8051114909171702</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.7351132139048104</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1101327388022</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.674821639289206</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6557393153168647</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1540,43 +1540,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.203997117696673</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.920030369115238</v>
+        <v>0.04451080886328995</v>
       </c>
       <c r="E23">
-        <v>11.45487244738287</v>
+        <v>0.06086856138434316</v>
       </c>
       <c r="F23">
-        <v>69.11287715929927</v>
+        <v>1.52748937330351</v>
       </c>
       <c r="G23">
-        <v>0.0003252866196440706</v>
+        <v>1.280943416648341</v>
       </c>
       <c r="H23">
-        <v>1.601714568055186</v>
+        <v>0.002746283870133981</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01544845338111056</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7946007340702579</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.7328708183054431</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1075898899408165</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.573852885742781</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6308382974379327</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1593,43 +1593,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.034674632458206</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.920030369115238</v>
+        <v>0.03933534843223541</v>
       </c>
       <c r="E24">
-        <v>11.45487244738287</v>
+        <v>0.05520879067915718</v>
       </c>
       <c r="F24">
-        <v>69.11287715929927</v>
+        <v>1.412465051171424</v>
       </c>
       <c r="G24">
-        <v>0.0003252866196440706</v>
+        <v>1.171558440187027</v>
       </c>
       <c r="H24">
-        <v>1.601714568055186</v>
+        <v>0.005893203554333037</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02064689690556953</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7521444933751127</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7185329305159769</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09798400427657583</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.201912284410582</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5413514771740608</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1646,43 +1646,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.8518047782471854</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.920030369115238</v>
+        <v>0.03389667586302636</v>
       </c>
       <c r="E25">
-        <v>11.45487244738287</v>
+        <v>0.04925280524736309</v>
       </c>
       <c r="F25">
-        <v>69.11287715929927</v>
+        <v>1.293047353799608</v>
       </c>
       <c r="G25">
-        <v>0.0003252866196440706</v>
+        <v>1.058535599752176</v>
       </c>
       <c r="H25">
-        <v>1.601714568055186</v>
+        <v>0.01082750291146484</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.02755540699960157</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7090968124109338</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7039257604889642</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08782308140609807</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.805216672005059</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4463945576452772</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7234583817159717</v>
+        <v>0.6645496778282336</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02992650373184347</v>
+        <v>0.02935770348813094</v>
       </c>
       <c r="E2">
-        <v>0.04517576885281915</v>
+        <v>0.0391125376528223</v>
       </c>
       <c r="F2">
-        <v>1.22091545983676</v>
+        <v>1.098517210575437</v>
       </c>
       <c r="G2">
-        <v>0.9908292259809173</v>
+        <v>0.8668853610331837</v>
       </c>
       <c r="H2">
-        <v>0.01559863828661262</v>
+        <v>0.01202315143143085</v>
       </c>
       <c r="I2">
-        <v>0.03268400461608323</v>
+        <v>0.02282568255419726</v>
       </c>
       <c r="J2">
-        <v>0.6855829985444899</v>
+        <v>0.6414154150856604</v>
       </c>
       <c r="K2">
-        <v>0.7033003184241338</v>
+        <v>0.5711801794007521</v>
       </c>
       <c r="L2">
-        <v>0.08060822389467859</v>
+        <v>0.2241069986859792</v>
       </c>
       <c r="M2">
-        <v>1.504576312338457</v>
+        <v>0.2042408373859601</v>
       </c>
       <c r="N2">
-        <v>0.371838670746456</v>
+        <v>0.07062943007771505</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.595277289529861</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.4258194416646859</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6322501639469067</v>
+        <v>0.582262344320867</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02729660353406516</v>
+        <v>0.02679245306771705</v>
       </c>
       <c r="E3">
-        <v>0.04228344199550405</v>
+        <v>0.03668099790819102</v>
       </c>
       <c r="F3">
-        <v>1.166693831923979</v>
+        <v>1.058175629203468</v>
       </c>
       <c r="G3">
-        <v>0.9399337207665752</v>
+        <v>0.8327885962040966</v>
       </c>
       <c r="H3">
-        <v>0.01952670636122256</v>
+        <v>0.01523490926333654</v>
       </c>
       <c r="I3">
-        <v>0.03725143564904121</v>
+        <v>0.02607908365246248</v>
       </c>
       <c r="J3">
-        <v>0.6672430924445081</v>
+        <v>0.6239943717728522</v>
       </c>
       <c r="K3">
-        <v>0.6977634867156404</v>
+        <v>0.5740343120851783</v>
       </c>
       <c r="L3">
-        <v>0.07560554798662222</v>
+        <v>0.2287273586128258</v>
       </c>
       <c r="M3">
-        <v>1.308690821200059</v>
+        <v>0.2036406972427347</v>
       </c>
       <c r="N3">
-        <v>0.3251636496990642</v>
+        <v>0.06590234364619629</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.382448208684281</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3711744120838887</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5759427315741732</v>
+        <v>0.5313139994246399</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02569338164078161</v>
+        <v>0.0252283066411465</v>
       </c>
       <c r="E4">
-        <v>0.04049975012534324</v>
+        <v>0.03518481475915824</v>
       </c>
       <c r="F4">
-        <v>1.133985308724967</v>
+        <v>1.033823789217216</v>
       </c>
       <c r="G4">
-        <v>0.9092956163280661</v>
+        <v>0.8125442533844449</v>
       </c>
       <c r="H4">
-        <v>0.02225170067678983</v>
+        <v>0.01747392758162392</v>
       </c>
       <c r="I4">
-        <v>0.04034215387394946</v>
+        <v>0.0282997214499221</v>
       </c>
       <c r="J4">
-        <v>0.6563804476457165</v>
+        <v>0.6133424340017655</v>
       </c>
       <c r="K4">
-        <v>0.6943434739125784</v>
+        <v>0.5757262690345399</v>
       </c>
       <c r="L4">
-        <v>0.07251450665596249</v>
+        <v>0.2315407107566898</v>
       </c>
       <c r="M4">
-        <v>1.189095425295932</v>
+        <v>0.2037638780421851</v>
       </c>
       <c r="N4">
-        <v>0.2968317104157023</v>
+        <v>0.06300396975236477</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.252559401744037</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3380677785897888</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5522332016512621</v>
+        <v>0.509850663539595</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02504712173110235</v>
+        <v>0.02459762928565468</v>
       </c>
       <c r="E5">
-        <v>0.03974373909671902</v>
+        <v>0.034555905793904</v>
       </c>
       <c r="F5">
-        <v>1.119488908044346</v>
+        <v>1.022894360907074</v>
       </c>
       <c r="G5">
-        <v>0.8956971623432537</v>
+        <v>0.8034060362073205</v>
       </c>
       <c r="H5">
-        <v>0.02344493764299449</v>
+        <v>0.01845653844860712</v>
       </c>
       <c r="I5">
-        <v>0.04177919735687619</v>
+        <v>0.02937456833913288</v>
       </c>
       <c r="J5">
-        <v>0.6514005433033958</v>
+        <v>0.608451351444188</v>
       </c>
       <c r="K5">
-        <v>0.6919363725644416</v>
+        <v>0.5756271052407982</v>
       </c>
       <c r="L5">
-        <v>0.071225497212005</v>
+        <v>0.2323200123485947</v>
       </c>
       <c r="M5">
-        <v>1.141674636252617</v>
+        <v>0.2037213631830799</v>
       </c>
       <c r="N5">
-        <v>0.2859478655326058</v>
+        <v>0.06182078231124866</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.200880731948871</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3252332073989379</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5474528526684992</v>
+        <v>0.505553685894256</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02494593903823272</v>
+        <v>0.02449869524708959</v>
       </c>
       <c r="E6">
-        <v>0.03958634949663065</v>
+        <v>0.03443034993477845</v>
       </c>
       <c r="F6">
-        <v>1.115495558945085</v>
+        <v>1.019737897076539</v>
       </c>
       <c r="G6">
-        <v>0.8919132737732411</v>
+        <v>0.8006161512982999</v>
       </c>
       <c r="H6">
-        <v>0.02365598634535226</v>
+        <v>0.01863026197823453</v>
       </c>
       <c r="I6">
-        <v>0.04216057768127257</v>
+        <v>0.029705984970815</v>
       </c>
       <c r="J6">
-        <v>0.6497869979392306</v>
+        <v>0.6069561442197795</v>
       </c>
       <c r="K6">
-        <v>0.690307108562223</v>
+        <v>0.5746677036213725</v>
       </c>
       <c r="L6">
-        <v>0.07098405708350208</v>
+        <v>0.2320098134159174</v>
       </c>
       <c r="M6">
-        <v>1.135237953781854</v>
+        <v>0.2034572715443925</v>
       </c>
       <c r="N6">
-        <v>0.2848633675745162</v>
+        <v>0.06162342906595342</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.193625168092183</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.3237841074032559</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5733248250697898</v>
+        <v>0.5297091747795548</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02570112935661228</v>
+        <v>0.02538305371912841</v>
       </c>
       <c r="E7">
-        <v>0.04040318447547175</v>
+        <v>0.03512857734412567</v>
       </c>
       <c r="F7">
-        <v>1.129438008589517</v>
+        <v>1.027675786839765</v>
       </c>
       <c r="G7">
-        <v>0.9049233905299019</v>
+        <v>0.8116299347909433</v>
       </c>
       <c r="H7">
-        <v>0.02228926641339557</v>
+        <v>0.01751685922581253</v>
       </c>
       <c r="I7">
-        <v>0.04072104812072119</v>
+        <v>0.02871405874316757</v>
       </c>
       <c r="J7">
-        <v>0.654152511177756</v>
+        <v>0.6045190106537461</v>
       </c>
       <c r="K7">
-        <v>0.6909572038085017</v>
+        <v>0.5723024101123499</v>
       </c>
       <c r="L7">
-        <v>0.07242367859553767</v>
+        <v>0.2299923142099551</v>
       </c>
       <c r="M7">
-        <v>1.192366005279467</v>
+        <v>0.2027645411592047</v>
       </c>
       <c r="N7">
-        <v>0.2986494062362084</v>
+        <v>0.06295376302764488</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.254167427067614</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3393612919163047</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6889996563998579</v>
+        <v>0.6358649050844747</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02903881049911305</v>
+        <v>0.02898898622994039</v>
       </c>
       <c r="E8">
-        <v>0.04406581399966347</v>
+        <v>0.03823104979021474</v>
       </c>
       <c r="F8">
-        <v>1.196353979809942</v>
+        <v>1.072025835890187</v>
       </c>
       <c r="G8">
-        <v>0.9676193037663978</v>
+        <v>0.8594641480882075</v>
       </c>
       <c r="H8">
-        <v>0.01690984772249843</v>
+        <v>0.01312589019306995</v>
       </c>
       <c r="I8">
-        <v>0.03462996388349726</v>
+        <v>0.02440285784199236</v>
       </c>
       <c r="J8">
-        <v>0.6763323730585569</v>
+        <v>0.6103753863229571</v>
       </c>
       <c r="K8">
-        <v>0.6969880918876221</v>
+        <v>0.5660875131361216</v>
       </c>
       <c r="L8">
-        <v>0.07879183132047496</v>
+        <v>0.2231280999143337</v>
       </c>
       <c r="M8">
-        <v>1.442092236922178</v>
+        <v>0.2019574772196293</v>
       </c>
       <c r="N8">
-        <v>0.3582905455461542</v>
+        <v>0.06889487175725773</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.522156690783703</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.4080598686284276</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9176783513777025</v>
+        <v>0.8418853454886914</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03568297661447417</v>
+        <v>0.03560945143916072</v>
       </c>
       <c r="E9">
-        <v>0.05139662343027762</v>
+        <v>0.04440436994237773</v>
       </c>
       <c r="F9">
-        <v>1.340444851673823</v>
+        <v>1.177655484605495</v>
       </c>
       <c r="G9">
-        <v>1.103464006143795</v>
+        <v>0.9557093047305329</v>
       </c>
       <c r="H9">
-        <v>0.00895133212848756</v>
+        <v>0.006679462167048678</v>
       </c>
       <c r="I9">
-        <v>0.02450132775710046</v>
+        <v>0.0171484388176264</v>
       </c>
       <c r="J9">
-        <v>0.727073709974718</v>
+        <v>0.6501578803280808</v>
       </c>
       <c r="K9">
-        <v>0.7146303827811664</v>
+        <v>0.5610115578344868</v>
       </c>
       <c r="L9">
-        <v>0.09134639307886339</v>
+        <v>0.212759068731863</v>
       </c>
       <c r="M9">
-        <v>1.931189632465134</v>
+        <v>0.2066625885529092</v>
       </c>
       <c r="N9">
-        <v>0.4746014894057566</v>
+        <v>0.08077414182884191</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.053084658954447</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.5446687933980456</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.079325035196604</v>
+        <v>0.9922682644682368</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04016979960233513</v>
+        <v>0.04094158177073481</v>
       </c>
       <c r="E10">
-        <v>0.05614529199724361</v>
+        <v>0.04867399444391785</v>
       </c>
       <c r="F10">
-        <v>1.42449394197223</v>
+        <v>1.224415680056069</v>
       </c>
       <c r="G10">
-        <v>1.184313372155003</v>
+        <v>1.029085963345622</v>
       </c>
       <c r="H10">
-        <v>0.005256224076847449</v>
+        <v>0.003822961759604837</v>
       </c>
       <c r="I10">
-        <v>0.01893532468258119</v>
+        <v>0.01335783054828177</v>
       </c>
       <c r="J10">
-        <v>0.7551175186008408</v>
+        <v>0.6328358394594318</v>
       </c>
       <c r="K10">
-        <v>0.7137260700625916</v>
+        <v>0.5435986441714036</v>
       </c>
       <c r="L10">
-        <v>0.1004910424845633</v>
+        <v>0.2003694430079328</v>
       </c>
       <c r="M10">
-        <v>2.304118434087997</v>
+        <v>0.207118110070482</v>
       </c>
       <c r="N10">
-        <v>0.5526960559782168</v>
+        <v>0.09013999268509565</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.446179210439453</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.6335260812472256</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.114113439645791</v>
+        <v>1.04534814110076</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0378175076925551</v>
+        <v>0.04003321877538468</v>
       </c>
       <c r="E11">
-        <v>0.05537785145490215</v>
+        <v>0.04969026913218677</v>
       </c>
       <c r="F11">
-        <v>1.259486817438912</v>
+        <v>1.063797875924706</v>
       </c>
       <c r="G11">
-        <v>1.038921543303047</v>
+        <v>0.94354841327862</v>
       </c>
       <c r="H11">
-        <v>0.02357112368085268</v>
+        <v>0.02226959185781396</v>
       </c>
       <c r="I11">
-        <v>0.01827590859784944</v>
+        <v>0.01324425944525309</v>
       </c>
       <c r="J11">
-        <v>0.6756998967127004</v>
+        <v>0.5027919947157216</v>
       </c>
       <c r="K11">
-        <v>0.6107661674627494</v>
+        <v>0.4650015860826429</v>
       </c>
       <c r="L11">
-        <v>0.1111774893655095</v>
+        <v>0.1712449583846354</v>
       </c>
       <c r="M11">
-        <v>2.536825589285968</v>
+        <v>0.1784117576885897</v>
       </c>
       <c r="N11">
-        <v>0.5020149088933721</v>
+        <v>0.1061777679767069</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.648370688975973</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.56446777872506</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.112438246739657</v>
+        <v>1.058821583417512</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03511121842335285</v>
+        <v>0.03762986506615462</v>
       </c>
       <c r="E12">
-        <v>0.05777057773909089</v>
+        <v>0.05288428602684103</v>
       </c>
       <c r="F12">
-        <v>1.116712561661345</v>
+        <v>0.9392884584181331</v>
       </c>
       <c r="G12">
-        <v>0.9123595909832574</v>
+        <v>0.8535600344102647</v>
       </c>
       <c r="H12">
-        <v>0.0624052142216982</v>
+        <v>0.06110088493148425</v>
       </c>
       <c r="I12">
-        <v>0.01816197036427258</v>
+        <v>0.01318786278422479</v>
       </c>
       <c r="J12">
-        <v>0.6091517994430404</v>
+        <v>0.4309797248357228</v>
       </c>
       <c r="K12">
-        <v>0.5389493007312041</v>
+        <v>0.4164269442065489</v>
       </c>
       <c r="L12">
-        <v>0.1284324305530546</v>
+        <v>0.1548350496633315</v>
       </c>
       <c r="M12">
-        <v>2.650267989565208</v>
+        <v>0.1589009867066018</v>
       </c>
       <c r="N12">
-        <v>0.4422666350785391</v>
+        <v>0.1263498453047589</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.735622328415189</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.4898306602744498</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.078943286621609</v>
+        <v>1.037438266005836</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03199453260400276</v>
+        <v>0.03378714239348923</v>
       </c>
       <c r="E13">
-        <v>0.06246441301501093</v>
+        <v>0.05808526897554778</v>
       </c>
       <c r="F13">
-        <v>0.9760661265253532</v>
+        <v>0.8320021928559242</v>
       </c>
       <c r="G13">
-        <v>0.7863779326894758</v>
+        <v>0.7445871830243078</v>
       </c>
       <c r="H13">
-        <v>0.118698007071032</v>
+        <v>0.1172691790610401</v>
       </c>
       <c r="I13">
-        <v>0.01893508862603888</v>
+        <v>0.01370099532801916</v>
       </c>
       <c r="J13">
-        <v>0.5452046883077344</v>
+        <v>0.3979425945539958</v>
       </c>
       <c r="K13">
-        <v>0.4815429334279102</v>
+        <v>0.383532186797197</v>
       </c>
       <c r="L13">
-        <v>0.1512264026981782</v>
+        <v>0.1445766272460016</v>
       </c>
       <c r="M13">
-        <v>2.683407379581297</v>
+        <v>0.1444196712414012</v>
       </c>
       <c r="N13">
-        <v>0.3756329454175642</v>
+        <v>0.1507015529870159</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.748170977719298</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.4107152902147249</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.040520255483983</v>
+        <v>1.006229867219929</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02968556783949339</v>
+        <v>0.03066436730362909</v>
       </c>
       <c r="E14">
-        <v>0.06727275095635399</v>
+        <v>0.06320051604938648</v>
       </c>
       <c r="F14">
-        <v>0.8793728737668047</v>
+        <v>0.7635235223875014</v>
       </c>
       <c r="G14">
-        <v>0.6990997071144562</v>
+        <v>0.6618943232863899</v>
       </c>
       <c r="H14">
-        <v>0.1686007439606101</v>
+        <v>0.1670263394193654</v>
       </c>
       <c r="I14">
-        <v>0.01999684421118086</v>
+        <v>0.01444566864290575</v>
       </c>
       <c r="J14">
-        <v>0.5018592199211014</v>
+        <v>0.3881885235415083</v>
       </c>
       <c r="K14">
-        <v>0.4487348753671725</v>
+        <v>0.3670414228686045</v>
       </c>
       <c r="L14">
-        <v>0.1709068827960607</v>
+        <v>0.1396686772430042</v>
       </c>
       <c r="M14">
-        <v>2.671519739535626</v>
+        <v>0.1366599276503084</v>
       </c>
       <c r="N14">
-        <v>0.3272347418247818</v>
+        <v>0.1707018346714761</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.724186924523991</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.3546501602212544</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.023605651188575</v>
+        <v>0.9906282420990351</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02901277621600329</v>
+        <v>0.02967601142061582</v>
       </c>
       <c r="E15">
-        <v>0.06845488307967251</v>
+        <v>0.06452787811543992</v>
       </c>
       <c r="F15">
-        <v>0.8542502799041429</v>
+        <v>0.7478438949437418</v>
       </c>
       <c r="G15">
-        <v>0.6760611092293516</v>
+        <v>0.6375598491864309</v>
       </c>
       <c r="H15">
-        <v>0.1813857279851021</v>
+        <v>0.1797385777319249</v>
       </c>
       <c r="I15">
-        <v>0.02061606044918296</v>
+        <v>0.01493132201533154</v>
       </c>
       <c r="J15">
-        <v>0.4909058635509922</v>
+        <v>0.3908144788740557</v>
       </c>
       <c r="K15">
-        <v>0.4419508709249325</v>
+        <v>0.3645445120215118</v>
       </c>
       <c r="L15">
-        <v>0.1757113274393447</v>
+        <v>0.1389649642359698</v>
       </c>
       <c r="M15">
-        <v>2.652819970930722</v>
+        <v>0.1353097641158119</v>
       </c>
       <c r="N15">
-        <v>0.3143447902666594</v>
+        <v>0.1754852738027424</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.70352784673247</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.3400846378557816</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9602345167040767</v>
+        <v>0.9231105492964105</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02776330321786702</v>
+        <v>0.02740050320995735</v>
       </c>
       <c r="E16">
-        <v>0.06522829798411678</v>
+        <v>0.06206447693797301</v>
       </c>
       <c r="F16">
-        <v>0.8458977092249285</v>
+        <v>0.7617931343234332</v>
       </c>
       <c r="G16">
-        <v>0.6657776486921705</v>
+        <v>0.6075298169011774</v>
       </c>
       <c r="H16">
-        <v>0.1701850881692621</v>
+        <v>0.1681499997774978</v>
       </c>
       <c r="I16">
-        <v>0.02300352712438691</v>
+        <v>0.01659887014188666</v>
       </c>
       <c r="J16">
-        <v>0.4909578251073867</v>
+        <v>0.4393479520758632</v>
       </c>
       <c r="K16">
-        <v>0.4525093081992022</v>
+        <v>0.37886078086769</v>
       </c>
       <c r="L16">
-        <v>0.166393489744415</v>
+        <v>0.1437699557026928</v>
       </c>
       <c r="M16">
-        <v>2.485302672334853</v>
+        <v>0.1403234400376867</v>
       </c>
       <c r="N16">
-        <v>0.2971702841779944</v>
+        <v>0.1661463173110462</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.545152240621746</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.3240587413427392</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9319255797948642</v>
+        <v>0.8889832336142831</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02800258790216503</v>
+        <v>0.02730558804645966</v>
       </c>
       <c r="E17">
-        <v>0.05988710162203148</v>
+        <v>0.05690762135502858</v>
       </c>
       <c r="F17">
-        <v>0.8897850204024422</v>
+        <v>0.8071160850882535</v>
       </c>
       <c r="G17">
-        <v>0.7033344396474632</v>
+        <v>0.6298990075557924</v>
       </c>
       <c r="H17">
-        <v>0.1333279010675881</v>
+        <v>0.1310705817829358</v>
       </c>
       <c r="I17">
-        <v>0.02431630337495427</v>
+        <v>0.01753083612848538</v>
       </c>
       <c r="J17">
-        <v>0.5136505639748492</v>
+        <v>0.4796452858456632</v>
       </c>
       <c r="K17">
-        <v>0.4770252275485198</v>
+        <v>0.3986265756018099</v>
       </c>
       <c r="L17">
-        <v>0.1480495984188863</v>
+        <v>0.1506631704327646</v>
       </c>
       <c r="M17">
-        <v>2.363843332061634</v>
+        <v>0.1478083234192287</v>
       </c>
       <c r="N17">
-        <v>0.309256143703692</v>
+        <v>0.147599128253276</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.434619193156294</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.3406174974033718</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.932237270171612</v>
+        <v>0.879574444501003</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02966983135745238</v>
+        <v>0.02890476588666857</v>
       </c>
       <c r="E18">
-        <v>0.05390755985423823</v>
+        <v>0.05053117312941779</v>
       </c>
       <c r="F18">
-        <v>0.9906746932423403</v>
+        <v>0.894126244113842</v>
       </c>
       <c r="G18">
-        <v>0.7927993961180277</v>
+        <v>0.6990173489011369</v>
       </c>
       <c r="H18">
-        <v>0.08074281185087528</v>
+        <v>0.0784268001831947</v>
       </c>
       <c r="I18">
-        <v>0.02436654457601506</v>
+        <v>0.01743593065635807</v>
       </c>
       <c r="J18">
-        <v>0.5615652736851331</v>
+        <v>0.5284302947667072</v>
       </c>
       <c r="K18">
-        <v>0.5230104835818281</v>
+        <v>0.4307954397558191</v>
       </c>
       <c r="L18">
-        <v>0.1242289889429564</v>
+        <v>0.1622483025426753</v>
       </c>
       <c r="M18">
-        <v>2.26495306903567</v>
+        <v>0.1601077863500109</v>
       </c>
       <c r="N18">
-        <v>0.348151362700392</v>
+        <v>0.1228881121600551</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.352626867657108</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.3887299157209441</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9510421339038828</v>
+        <v>0.8861400829999582</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03261914913062824</v>
+        <v>0.03193399242065098</v>
       </c>
       <c r="E19">
-        <v>0.05072759497470392</v>
+        <v>0.04625168291283988</v>
       </c>
       <c r="F19">
-        <v>1.13090644268604</v>
+        <v>1.009604704151641</v>
       </c>
       <c r="G19">
-        <v>0.9178226471200901</v>
+        <v>0.7981547903238351</v>
       </c>
       <c r="H19">
-        <v>0.03491473032355685</v>
+        <v>0.03271344214660132</v>
       </c>
       <c r="I19">
-        <v>0.02398290852318219</v>
+        <v>0.0172255469542657</v>
       </c>
       <c r="J19">
-        <v>0.6261194286188783</v>
+        <v>0.5836236273421775</v>
       </c>
       <c r="K19">
-        <v>0.5867808574134408</v>
+        <v>0.4729861931969808</v>
       </c>
       <c r="L19">
-        <v>0.1053622075287599</v>
+        <v>0.1775888744799907</v>
       </c>
       <c r="M19">
-        <v>2.200338774746712</v>
+        <v>0.1762865709759929</v>
       </c>
       <c r="N19">
-        <v>0.411838076558098</v>
+        <v>0.1016720757930045</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.308519882967545</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.4658088699149374</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.029431427864836</v>
+        <v>0.9440257809795014</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0390102923934954</v>
+        <v>0.03899939272370645</v>
       </c>
       <c r="E20">
-        <v>0.0546107148340198</v>
+        <v>0.04735897053848226</v>
       </c>
       <c r="F20">
-        <v>1.387842394446878</v>
+        <v>1.208332344399679</v>
       </c>
       <c r="G20">
-        <v>1.14905841645438</v>
+        <v>0.9881549976739308</v>
       </c>
       <c r="H20">
-        <v>0.0061245820339626</v>
+        <v>0.004464035174529091</v>
       </c>
       <c r="I20">
-        <v>0.02130312953882196</v>
+        <v>0.01538885278620405</v>
       </c>
       <c r="J20">
-        <v>0.7405692892781133</v>
+        <v>0.6549183880698592</v>
       </c>
       <c r="K20">
-        <v>0.7034117493320622</v>
+        <v>0.5434695432398939</v>
       </c>
       <c r="L20">
-        <v>0.09790706177337771</v>
+        <v>0.2018748513692792</v>
       </c>
       <c r="M20">
-        <v>2.218523236826314</v>
+        <v>0.2050629629019163</v>
       </c>
       <c r="N20">
-        <v>0.5378496577632887</v>
+        <v>0.08792540451439024</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.359187651352642</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.6168838269904313</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.160735590504942</v>
+        <v>1.076718262657494</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04333533946276802</v>
+        <v>0.04716778845656933</v>
       </c>
       <c r="E21">
-        <v>0.05940183298706003</v>
+        <v>0.05149508878911568</v>
       </c>
       <c r="F21">
-        <v>1.493018385740029</v>
+        <v>1.233827168763611</v>
       </c>
       <c r="G21">
-        <v>1.248022396071093</v>
+        <v>1.129329842625154</v>
       </c>
       <c r="H21">
-        <v>0.00337090214585789</v>
+        <v>0.002375182629145045</v>
       </c>
       <c r="I21">
-        <v>0.01712299288387431</v>
+        <v>0.01259163271290653</v>
       </c>
       <c r="J21">
-        <v>0.7808752753878707</v>
+        <v>0.5419928652406725</v>
       </c>
       <c r="K21">
-        <v>0.723774918202956</v>
+        <v>0.5293993764646459</v>
       </c>
       <c r="L21">
-        <v>0.1052469983679964</v>
+        <v>0.1926270429457873</v>
       </c>
       <c r="M21">
-        <v>2.494806598287511</v>
+        <v>0.2054025019442669</v>
       </c>
       <c r="N21">
-        <v>0.6136602809446146</v>
+        <v>0.09359873633825444</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.629104841479489</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.6969182052750398</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.247470349441727</v>
+        <v>1.166165687945579</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04590971586068804</v>
+        <v>0.05274410490596892</v>
       </c>
       <c r="E22">
-        <v>0.06234693102542943</v>
+        <v>0.05421208427134605</v>
       </c>
       <c r="F22">
-        <v>1.556312799919695</v>
+        <v>1.242536948377094</v>
       </c>
       <c r="G22">
-        <v>1.30840916829905</v>
+        <v>1.226272204975714</v>
       </c>
       <c r="H22">
-        <v>0.002126765272699283</v>
+        <v>0.001461316577517024</v>
       </c>
       <c r="I22">
-        <v>0.01440275735132346</v>
+        <v>0.01060240061132234</v>
       </c>
       <c r="J22">
-        <v>0.8051114909171702</v>
+        <v>0.4688792125349295</v>
       </c>
       <c r="K22">
-        <v>0.7351132139048104</v>
+        <v>0.5181462586064107</v>
       </c>
       <c r="L22">
-        <v>0.1101327388022</v>
+        <v>0.1861289173794276</v>
       </c>
       <c r="M22">
-        <v>2.674821639289206</v>
+        <v>0.2049834858632416</v>
       </c>
       <c r="N22">
-        <v>0.6557393153168647</v>
+        <v>0.09765761925985394</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.801315627970837</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.7399971272977552</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.203997117696673</v>
+        <v>1.118946665344424</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04451080886328995</v>
+        <v>0.04925117665217016</v>
       </c>
       <c r="E23">
-        <v>0.06086856138434316</v>
+        <v>0.05277765286653446</v>
       </c>
       <c r="F23">
-        <v>1.52748937330351</v>
+        <v>1.247788102254844</v>
       </c>
       <c r="G23">
-        <v>1.280943416648341</v>
+        <v>1.170271673788662</v>
       </c>
       <c r="H23">
-        <v>0.002746283870133981</v>
+        <v>0.001907946455740439</v>
       </c>
       <c r="I23">
-        <v>0.01544845338111056</v>
+        <v>0.01120164868062989</v>
       </c>
       <c r="J23">
-        <v>0.7946007340702579</v>
+        <v>0.5223548556758146</v>
       </c>
       <c r="K23">
-        <v>0.7328708183054431</v>
+        <v>0.5286654237037816</v>
       </c>
       <c r="L23">
-        <v>0.1075898899408165</v>
+        <v>0.1910542760353806</v>
       </c>
       <c r="M23">
-        <v>2.573852885742781</v>
+        <v>0.2070877487808716</v>
       </c>
       <c r="N23">
-        <v>0.6308382974379327</v>
+        <v>0.09552743100699068</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.708616168127747</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.7158019260398305</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.034674632458206</v>
+        <v>0.9473303087407601</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03933534843223541</v>
+        <v>0.0393194605803231</v>
       </c>
       <c r="E24">
-        <v>0.05520879067915718</v>
+        <v>0.04767074677921235</v>
       </c>
       <c r="F24">
-        <v>1.412465051171424</v>
+        <v>1.228711787920901</v>
       </c>
       <c r="G24">
-        <v>1.171558440187027</v>
+        <v>1.005714169124005</v>
       </c>
       <c r="H24">
-        <v>0.005893203554333037</v>
+        <v>0.004253044148474605</v>
       </c>
       <c r="I24">
-        <v>0.02064689690556953</v>
+        <v>0.01466005699667061</v>
       </c>
       <c r="J24">
-        <v>0.7521444933751127</v>
+        <v>0.6653708845486221</v>
       </c>
       <c r="K24">
-        <v>0.7185329305159769</v>
+        <v>0.5538769378104895</v>
       </c>
       <c r="L24">
-        <v>0.09798400427657583</v>
+        <v>0.2056656957976628</v>
       </c>
       <c r="M24">
-        <v>2.201912284410582</v>
+        <v>0.2090439053293451</v>
       </c>
       <c r="N24">
-        <v>0.5413514771740608</v>
+        <v>0.08726245850628978</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.345126910241248</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.6222557104919275</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8518047782471854</v>
+        <v>0.7818785327941953</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03389667586302636</v>
+        <v>0.03361205843817672</v>
       </c>
       <c r="E25">
-        <v>0.04925280524736309</v>
+        <v>0.04261895263570237</v>
       </c>
       <c r="F25">
-        <v>1.293047353799608</v>
+        <v>1.145445112376777</v>
       </c>
       <c r="G25">
-        <v>1.058535599752176</v>
+        <v>0.9187936724991488</v>
       </c>
       <c r="H25">
-        <v>0.01082750291146484</v>
+        <v>0.00817471957166957</v>
       </c>
       <c r="I25">
-        <v>0.02755540699960157</v>
+        <v>0.01953592478416422</v>
       </c>
       <c r="J25">
-        <v>0.7090968124109338</v>
+        <v>0.6457327557855024</v>
       </c>
       <c r="K25">
-        <v>0.7039257604889642</v>
+        <v>0.5592723030190854</v>
       </c>
       <c r="L25">
-        <v>0.08782308140609807</v>
+        <v>0.2143598539728124</v>
       </c>
       <c r="M25">
-        <v>1.805216672005059</v>
+        <v>0.2038316627418766</v>
       </c>
       <c r="N25">
-        <v>0.4463945576452772</v>
+        <v>0.07762059105802788</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.917105197615399</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.5112559982019604</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
